--- a/src/test/resources/org/nexial/core/model/TestScenarioTest1.xlsx
+++ b/src/test/resources/org/nexial/core/model/TestScenarioTest1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10305"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB6802-0D59-184A-B0B8-2B4D99878808}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1EAB6802-0D59-184A-B0B8-2B4D99878808}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="6" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test Scenario" r:id="rId2" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -37,16 +37,17 @@
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
     <definedName name="remote">'#system'!$M$2:$M$200</definedName>
     <definedName name="soap">'#system'!$O$2:$O$200</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
-    <definedName name="target" localSheetId="1">'#system'!$A$2:$A$22</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName localSheetId="1" name="target">'#system'!$A$2:$A$23</definedName>
     <definedName name="target">'#system'!$A$2:$A$200</definedName>
     <definedName name="var">'#system'!$P$2:$P$200</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="469">
   <si>
     <t>true</t>
   </si>
@@ -1451,12 +1452,52 @@
       <t xml:space="preserve"> know what the definition of insanity is?</t>
     </r>
   </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1545,8 +1586,84 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1571,8 +1688,127 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1674,173 +1910,403 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="48">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="4" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1942,7 +2408,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1967,10 +2433,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2005,7 +2471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2040,7 +2506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2134,21 +2600,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2165,7 +2631,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2217,36 +2683,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="18" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.1640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.1640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="35.1640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="37.83203125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.83203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="13" max="18" customWidth="true" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2293,28 +2759,31 @@
         <v>94</v>
       </c>
       <c r="P1" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>437</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>98</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>99</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -2352,7 +2821,7 @@
         <v>252</v>
       </c>
       <c r="M2" t="s">
-        <v>253</v>
+        <v>459</v>
       </c>
       <c r="N2" t="s">
         <v>260</v>
@@ -2361,28 +2830,31 @@
         <v>275</v>
       </c>
       <c r="P2" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q2" t="s">
         <v>280</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>438</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>288</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>394</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>399</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>406</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2426,28 +2898,31 @@
         <v>276</v>
       </c>
       <c r="P3" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q3" t="s">
         <v>281</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>439</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>289</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>395</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>400</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>407</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -2488,28 +2963,31 @@
         <v>277</v>
       </c>
       <c r="P4" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q4" t="s">
         <v>282</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>440</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>290</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>396</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>401</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>408</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2544,25 +3022,28 @@
         <v>278</v>
       </c>
       <c r="P5" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q5" t="s">
         <v>283</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>291</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>397</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>402</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>409</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2594,25 +3075,28 @@
         <v>279</v>
       </c>
       <c r="P6" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q6" t="s">
         <v>284</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>292</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>398</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>410</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2641,22 +3125,25 @@
         <v>265</v>
       </c>
       <c r="P7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q7" t="s">
         <v>285</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>293</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>411</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2685,22 +3172,25 @@
         <v>266</v>
       </c>
       <c r="P8" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q8" t="s">
         <v>286</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>294</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>412</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2726,19 +3216,22 @@
         <v>267</v>
       </c>
       <c r="P9" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q9" t="s">
         <v>287</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>295</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>413</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2760,17 +3253,20 @@
       <c r="N10" t="s">
         <v>268</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>468</v>
+      </c>
+      <c r="S10" t="s">
         <v>296</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>414</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -2792,17 +3288,17 @@
       <c r="N11" t="s">
         <v>269</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>297</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>415</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -2821,14 +3317,14 @@
       <c r="N12" t="s">
         <v>270</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>298</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -2847,14 +3343,14 @@
       <c r="N13" t="s">
         <v>271</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>299</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -2873,14 +3369,14 @@
       <c r="N14" t="s">
         <v>272</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>300</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -2896,16 +3392,16 @@
       <c r="N15" t="s">
         <v>273</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>301</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>456</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -2919,16 +3415,16 @@
       <c r="N16" t="s">
         <v>274</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>302</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
         <v>119</v>
@@ -2939,13 +3435,13 @@
       <c r="I17" t="s">
         <v>72</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
         <v>120</v>
@@ -2956,13 +3452,13 @@
       <c r="I18" t="s">
         <v>245</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
         <v>121</v>
@@ -2973,13 +3469,13 @@
       <c r="I19" t="s">
         <v>246</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>122</v>
@@ -2990,13 +3486,13 @@
       <c r="I20" t="s">
         <v>73</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>123</v>
@@ -3007,13 +3503,13 @@
       <c r="I21" t="s">
         <v>74</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
@@ -3021,704 +3517,707 @@
       <c r="E22" t="s">
         <v>157</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
       <c r="C23" t="s">
         <v>125</v>
       </c>
       <c r="E23" t="s">
         <v>158</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>126</v>
       </c>
       <c r="E24" t="s">
         <v>159</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>127</v>
       </c>
       <c r="E25" t="s">
         <v>160</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>128</v>
       </c>
       <c r="E26" t="s">
         <v>161</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>129</v>
       </c>
       <c r="E27" t="s">
         <v>162</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>130</v>
       </c>
       <c r="E28" t="s">
         <v>163</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>131</v>
       </c>
       <c r="E29" t="s">
         <v>164</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>132</v>
       </c>
       <c r="E30" t="s">
         <v>165</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>166</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>167</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>168</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>169</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>170</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>172</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>173</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>174</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>175</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>176</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>177</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>178</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="44" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>179</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>180</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>181</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>182</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>183</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>184</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>185</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>186</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
-        <v>187</v>
-      </c>
-      <c r="R52" t="s">
+        <v>189</v>
+      </c>
+      <c r="S52" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
-        <v>188</v>
-      </c>
-      <c r="R53" t="s">
+        <v>190</v>
+      </c>
+      <c r="S53" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
-        <v>189</v>
-      </c>
-      <c r="R54" t="s">
+        <v>191</v>
+      </c>
+      <c r="S54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
-        <v>190</v>
-      </c>
-      <c r="R55" t="s">
+        <v>192</v>
+      </c>
+      <c r="S55" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="56" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
-        <v>191</v>
-      </c>
-      <c r="R56" t="s">
+        <v>193</v>
+      </c>
+      <c r="S56" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="57" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
-        <v>192</v>
-      </c>
-      <c r="R57" t="s">
+        <v>194</v>
+      </c>
+      <c r="S57" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="58" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
-        <v>193</v>
-      </c>
-      <c r="R58" t="s">
+        <v>195</v>
+      </c>
+      <c r="S58" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="59" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
-        <v>194</v>
-      </c>
-      <c r="R59" t="s">
+        <v>196</v>
+      </c>
+      <c r="S59" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
-        <v>195</v>
-      </c>
-      <c r="R60" t="s">
+        <v>197</v>
+      </c>
+      <c r="S60" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
-        <v>196</v>
-      </c>
-      <c r="R61" t="s">
+        <v>198</v>
+      </c>
+      <c r="S61" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
-        <v>197</v>
-      </c>
-      <c r="R62" t="s">
+        <v>199</v>
+      </c>
+      <c r="S62" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="63" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
-        <v>198</v>
-      </c>
-      <c r="R63" t="s">
+        <v>200</v>
+      </c>
+      <c r="S63" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="64" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
-        <v>199</v>
-      </c>
-      <c r="R64" t="s">
+        <v>201</v>
+      </c>
+      <c r="S64" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="65" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
-        <v>200</v>
-      </c>
-      <c r="R65" t="s">
+        <v>202</v>
+      </c>
+      <c r="S65" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
-        <v>201</v>
-      </c>
-      <c r="R66" t="s">
+        <v>203</v>
+      </c>
+      <c r="S66" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
-        <v>202</v>
-      </c>
-      <c r="R67" t="s">
+        <v>204</v>
+      </c>
+      <c r="S67" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
-        <v>203</v>
-      </c>
-      <c r="R68" t="s">
+        <v>205</v>
+      </c>
+      <c r="S68" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="69" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>204</v>
-      </c>
-      <c r="R69" t="s">
+        <v>457</v>
+      </c>
+      <c r="S69" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>205</v>
-      </c>
-      <c r="R70" t="s">
+        <v>206</v>
+      </c>
+      <c r="S70" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>206</v>
-      </c>
-      <c r="R71" t="s">
+        <v>458</v>
+      </c>
+      <c r="S71" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>207</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>208</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="74" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>209</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>210</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="76" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>211</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>212</v>
       </c>
-      <c r="R77" t="s">
+      <c r="S77" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>213</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>214</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>215</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>216</v>
       </c>
-      <c r="R81" t="s">
+      <c r="S81" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="82" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>217</v>
       </c>
-      <c r="R82" t="s">
+      <c r="S82" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>218</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>219</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="85" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>220</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>221</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>222</v>
       </c>
-      <c r="R87" t="s">
+      <c r="S87" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="88" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>223</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="89" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>224</v>
       </c>
-      <c r="R89" t="s">
+      <c r="S89" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>225</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="91" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>226</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R92" t="s">
+    <row r="92">
+      <c r="S92" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="93" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R93" t="s">
+    <row r="93">
+      <c r="S93" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="94" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R94" t="s">
+    <row r="94">
+      <c r="S94" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R95" t="s">
+    <row r="95">
+      <c r="S95" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="R96" t="s">
+    <row r="96">
+      <c r="S96" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R97" t="s">
+    <row r="97">
+      <c r="S97" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R98" t="s">
+    <row r="98">
+      <c r="S98" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R99" t="s">
+    <row r="99">
+      <c r="S99" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="100" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R100" t="s">
+    <row r="100">
+      <c r="S100" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R101" t="s">
+    <row r="101">
+      <c r="S101" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R102" t="s">
+    <row r="102">
+      <c r="S102" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R103" t="s">
+    <row r="103">
+      <c r="S103" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R104" t="s">
+    <row r="104">
+      <c r="S104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R105" t="s">
+    <row r="105">
+      <c r="S105" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="106" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R106" t="s">
+    <row r="106">
+      <c r="S106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R107" t="s">
+    <row r="107">
+      <c r="S107" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="108" spans="18:18" x14ac:dyDescent="0.2">
-      <c r="R108" t="s">
+    <row r="108">
+      <c r="S108" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O697"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="56" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.33203125" style="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.6640625" style="12" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.1640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="13" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="19" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.83203125" style="18" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="13" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="10" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="56.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="16" width="10.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="44.6640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="12" width="18.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="24.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="13" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="18" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="19" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="18" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="13" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -3749,7 +4248,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>441</v>
       </c>
@@ -3778,7 +4277,7 @@
       <c r="N2" s="33"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="14"/>
@@ -3795,7 +4294,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>431</v>
       </c>
@@ -3840,7 +4339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>444</v>
       </c>
@@ -3873,7 +4372,7 @@
       <c r="N5" s="17"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>449</v>
@@ -3902,7 +4401,7 @@
       <c r="N6" s="17"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="30" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>445</v>
       </c>
@@ -3931,7 +4430,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="35" t="s">
         <v>451</v>
@@ -3958,7 +4457,7 @@
       <c r="N8" s="17"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="35" t="s">
         <v>452</v>
@@ -3987,7 +4486,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15" t="s">
@@ -4008,7 +4507,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="15" t="s">
@@ -4029,7 +4528,7 @@
       <c r="N11" s="17"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="15" t="s">
@@ -4056,7 +4555,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>446</v>
       </c>
@@ -4087,7 +4586,7 @@
       <c r="N13" s="17"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="35" t="s">
         <v>454</v>
@@ -4114,7 +4613,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="35" t="s">
         <v>455</v>
@@ -4141,7 +4640,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="15"/>
@@ -4158,7 +4657,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
@@ -4181,7 +4680,7 @@
       <c r="N17" s="17"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="15"/>
@@ -4198,7 +4697,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="15"/>
@@ -4215,7 +4714,7 @@
       <c r="N19" s="17"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="15"/>
@@ -4232,7 +4731,7 @@
       <c r="N20" s="17"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>447</v>
       </c>
@@ -4251,7 +4750,7 @@
       <c r="N21" s="17"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="15"/>
@@ -4268,7 +4767,7 @@
       <c r="N22" s="17"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="35" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="15"/>
@@ -4285,7 +4784,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="15"/>
@@ -4302,7 +4801,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="15"/>
@@ -4319,7 +4818,7 @@
       <c r="N25" s="17"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="15"/>
@@ -4336,7 +4835,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="15"/>
@@ -4353,7 +4852,7 @@
       <c r="N27" s="17"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="34" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
@@ -4370,7 +4869,7 @@
       <c r="N28" s="17"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="15"/>
@@ -4387,7 +4886,7 @@
       <c r="N29" s="17"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="15"/>
@@ -4404,7 +4903,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="15"/>
@@ -4421,7 +4920,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="15"/>
@@ -4438,7 +4937,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="15"/>
@@ -4455,7 +4954,7 @@
       <c r="N33" s="17"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="15"/>
@@ -4472,7 +4971,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="15"/>
@@ -4489,7 +4988,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="15"/>
@@ -4506,7 +5005,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="15"/>
@@ -4523,7 +5022,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="15"/>
@@ -4540,7 +5039,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="15"/>
@@ -4557,7 +5056,7 @@
       <c r="N39" s="17"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="15"/>
@@ -4574,7 +5073,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="15"/>
@@ -4591,7 +5090,7 @@
       <c r="N41" s="17"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="15"/>
@@ -4608,7 +5107,7 @@
       <c r="N42" s="17"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="15"/>
@@ -4625,7 +5124,7 @@
       <c r="N43" s="17"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="15"/>
@@ -4642,7 +5141,7 @@
       <c r="N44" s="17"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="15"/>
@@ -4659,7 +5158,7 @@
       <c r="N45" s="17"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="15"/>
@@ -4676,7 +5175,7 @@
       <c r="N46" s="17"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="15"/>
@@ -4693,7 +5192,7 @@
       <c r="N47" s="17"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="15"/>
@@ -4710,7 +5209,7 @@
       <c r="N48" s="17"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="15"/>
@@ -4727,7 +5226,7 @@
       <c r="N49" s="17"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="15"/>
@@ -4744,7 +5243,7 @@
       <c r="N50" s="17"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="15"/>
@@ -4761,7 +5260,7 @@
       <c r="N51" s="17"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="15"/>
@@ -4778,7 +5277,7 @@
       <c r="N52" s="17"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="15"/>
@@ -4795,7 +5294,7 @@
       <c r="N53" s="17"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="15"/>
@@ -4812,7 +5311,7 @@
       <c r="N54" s="17"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="15"/>
@@ -4829,7 +5328,7 @@
       <c r="N55" s="17"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="15"/>
@@ -4846,7 +5345,7 @@
       <c r="N56" s="17"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="15"/>
@@ -4863,7 +5362,7 @@
       <c r="N57" s="17"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="15"/>
@@ -4880,7 +5379,7 @@
       <c r="N58" s="17"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="15"/>
@@ -4897,7 +5396,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="15"/>
@@ -4914,7 +5413,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="15"/>
@@ -4931,7 +5430,7 @@
       <c r="N61" s="17"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="15"/>
@@ -4948,7 +5447,7 @@
       <c r="N62" s="17"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="15"/>
@@ -4965,7 +5464,7 @@
       <c r="N63" s="17"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="15"/>
@@ -4982,7 +5481,7 @@
       <c r="N64" s="17"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="15"/>
@@ -4999,7 +5498,7 @@
       <c r="N65" s="17"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="15"/>
@@ -5016,7 +5515,7 @@
       <c r="N66" s="17"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15"/>
@@ -5033,7 +5532,7 @@
       <c r="N67" s="17"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="15"/>
@@ -5050,7 +5549,7 @@
       <c r="N68" s="17"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="15"/>
@@ -5067,7 +5566,7 @@
       <c r="N69" s="17"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="15"/>
@@ -5084,7 +5583,7 @@
       <c r="N70" s="17"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="15"/>
@@ -5101,7 +5600,7 @@
       <c r="N71" s="17"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="15"/>
@@ -5118,7 +5617,7 @@
       <c r="N72" s="17"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="15"/>
@@ -5135,7 +5634,7 @@
       <c r="N73" s="17"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="15"/>
@@ -5152,7 +5651,7 @@
       <c r="N74" s="17"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="15"/>
@@ -5169,7 +5668,7 @@
       <c r="N75" s="17"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="15"/>
@@ -5186,7 +5685,7 @@
       <c r="N76" s="17"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="15"/>
@@ -5203,7 +5702,7 @@
       <c r="N77" s="17"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="15"/>
@@ -5220,7 +5719,7 @@
       <c r="N78" s="17"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="15"/>
@@ -5237,7 +5736,7 @@
       <c r="N79" s="17"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="15"/>
@@ -5254,7 +5753,7 @@
       <c r="N80" s="17"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="15"/>
@@ -5271,7 +5770,7 @@
       <c r="N81" s="17"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="15"/>
@@ -5288,7 +5787,7 @@
       <c r="N82" s="17"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="15"/>
@@ -5305,7 +5804,7 @@
       <c r="N83" s="17"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="15"/>
@@ -5322,7 +5821,7 @@
       <c r="N84" s="17"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="15"/>
@@ -5339,7 +5838,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="15"/>
@@ -5356,7 +5855,7 @@
       <c r="N86" s="17"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="15"/>
@@ -5373,7 +5872,7 @@
       <c r="N87" s="17"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="15"/>
@@ -5390,7 +5889,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="15"/>
@@ -5407,7 +5906,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="15"/>
@@ -5424,7 +5923,7 @@
       <c r="N90" s="17"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="15"/>
@@ -5441,7 +5940,7 @@
       <c r="N91" s="17"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="15"/>
@@ -5458,7 +5957,7 @@
       <c r="N92" s="17"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="15"/>
@@ -5475,7 +5974,7 @@
       <c r="N93" s="17"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="15"/>
@@ -5492,7 +5991,7 @@
       <c r="N94" s="17"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="15"/>
@@ -5509,7 +6008,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="15"/>
@@ -5526,7 +6025,7 @@
       <c r="N96" s="17"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="15"/>
@@ -5543,7 +6042,7 @@
       <c r="N97" s="17"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="15"/>
@@ -5560,7 +6059,7 @@
       <c r="N98" s="17"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="15"/>
@@ -5577,7 +6076,7 @@
       <c r="N99" s="17"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="15"/>
@@ -5594,7 +6093,7 @@
       <c r="N100" s="17"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="15"/>
@@ -5611,7 +6110,7 @@
       <c r="N101" s="17"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="15"/>
@@ -5628,7 +6127,7 @@
       <c r="N102" s="17"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="15"/>
@@ -5645,7 +6144,7 @@
       <c r="N103" s="17"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="15"/>
@@ -5662,7 +6161,7 @@
       <c r="N104" s="17"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="15"/>
@@ -5679,7 +6178,7 @@
       <c r="N105" s="17"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="15"/>
@@ -5696,7 +6195,7 @@
       <c r="N106" s="17"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="15"/>
@@ -5713,7 +6212,7 @@
       <c r="N107" s="17"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="15"/>
@@ -5730,7 +6229,7 @@
       <c r="N108" s="17"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="15"/>
@@ -5747,7 +6246,7 @@
       <c r="N109" s="17"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="15"/>
@@ -5764,7 +6263,7 @@
       <c r="N110" s="17"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="15"/>
@@ -5781,7 +6280,7 @@
       <c r="N111" s="17"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="15"/>
@@ -5798,7 +6297,7 @@
       <c r="N112" s="17"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="15"/>
@@ -5815,7 +6314,7 @@
       <c r="N113" s="17"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="15"/>
@@ -5832,7 +6331,7 @@
       <c r="N114" s="17"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="15"/>
@@ -5849,7 +6348,7 @@
       <c r="N115" s="17"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="15"/>
@@ -5866,7 +6365,7 @@
       <c r="N116" s="17"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="15"/>
@@ -5883,7 +6382,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="15"/>
@@ -5900,7 +6399,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="15"/>
@@ -5917,7 +6416,7 @@
       <c r="N119" s="17"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="15"/>
@@ -5934,7 +6433,7 @@
       <c r="N120" s="17"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="15"/>
@@ -5951,7 +6450,7 @@
       <c r="N121" s="17"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="15"/>
@@ -5968,7 +6467,7 @@
       <c r="N122" s="17"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="15"/>
@@ -5985,7 +6484,7 @@
       <c r="N123" s="17"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="15"/>
@@ -6002,7 +6501,7 @@
       <c r="N124" s="17"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="15"/>
@@ -6019,7 +6518,7 @@
       <c r="N125" s="17"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="15"/>
@@ -6036,7 +6535,7 @@
       <c r="N126" s="17"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="15"/>
@@ -6053,7 +6552,7 @@
       <c r="N127" s="17"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="15"/>
@@ -6070,7 +6569,7 @@
       <c r="N128" s="17"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="15"/>
@@ -6087,7 +6586,7 @@
       <c r="N129" s="17"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="15"/>
@@ -6104,7 +6603,7 @@
       <c r="N130" s="17"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="15"/>
@@ -6121,7 +6620,7 @@
       <c r="N131" s="17"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="15"/>
@@ -6138,7 +6637,7 @@
       <c r="N132" s="17"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="15"/>
@@ -6155,7 +6654,7 @@
       <c r="N133" s="17"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="15"/>
@@ -6172,7 +6671,7 @@
       <c r="N134" s="17"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="15"/>
@@ -6189,7 +6688,7 @@
       <c r="N135" s="17"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="15"/>
@@ -6206,7 +6705,7 @@
       <c r="N136" s="17"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="15"/>
@@ -6223,7 +6722,7 @@
       <c r="N137" s="17"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="15"/>
@@ -6240,7 +6739,7 @@
       <c r="N138" s="17"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="15"/>
@@ -6257,7 +6756,7 @@
       <c r="N139" s="17"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="15"/>
@@ -6274,7 +6773,7 @@
       <c r="N140" s="17"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="15"/>
@@ -6291,7 +6790,7 @@
       <c r="N141" s="17"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="15"/>
@@ -6308,7 +6807,7 @@
       <c r="N142" s="17"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="15"/>
@@ -6325,7 +6824,7 @@
       <c r="N143" s="17"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="15"/>
@@ -6342,7 +6841,7 @@
       <c r="N144" s="17"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="15"/>
@@ -6359,7 +6858,7 @@
       <c r="N145" s="17"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="15"/>
@@ -6376,7 +6875,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="15"/>
@@ -6393,7 +6892,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="15"/>
@@ -6410,7 +6909,7 @@
       <c r="N148" s="17"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="15"/>
@@ -6427,7 +6926,7 @@
       <c r="N149" s="17"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="15"/>
@@ -6444,7 +6943,7 @@
       <c r="N150" s="17"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="15"/>
@@ -6461,7 +6960,7 @@
       <c r="N151" s="17"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="15"/>
@@ -6478,7 +6977,7 @@
       <c r="N152" s="17"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="15"/>
@@ -6495,7 +6994,7 @@
       <c r="N153" s="17"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="15"/>
@@ -6512,7 +7011,7 @@
       <c r="N154" s="17"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="15"/>
@@ -6529,7 +7028,7 @@
       <c r="N155" s="17"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="15"/>
@@ -6546,7 +7045,7 @@
       <c r="N156" s="17"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="15"/>
@@ -6563,7 +7062,7 @@
       <c r="N157" s="17"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="15"/>
@@ -6580,7 +7079,7 @@
       <c r="N158" s="17"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="15"/>
@@ -6597,7 +7096,7 @@
       <c r="N159" s="17"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="15"/>
@@ -6614,7 +7113,7 @@
       <c r="N160" s="17"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="15"/>
@@ -6631,7 +7130,7 @@
       <c r="N161" s="17"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="15"/>
@@ -6648,7 +7147,7 @@
       <c r="N162" s="17"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="15"/>
@@ -6665,7 +7164,7 @@
       <c r="N163" s="17"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="15"/>
@@ -6682,7 +7181,7 @@
       <c r="N164" s="17"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="15"/>
@@ -6699,7 +7198,7 @@
       <c r="N165" s="17"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="15"/>
@@ -6716,7 +7215,7 @@
       <c r="N166" s="17"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="15"/>
@@ -6733,7 +7232,7 @@
       <c r="N167" s="17"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="15"/>
@@ -6750,7 +7249,7 @@
       <c r="N168" s="17"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="15"/>
@@ -6767,7 +7266,7 @@
       <c r="N169" s="17"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="15"/>
@@ -6784,7 +7283,7 @@
       <c r="N170" s="17"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="15"/>
@@ -6801,7 +7300,7 @@
       <c r="N171" s="17"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="15"/>
@@ -6818,7 +7317,7 @@
       <c r="N172" s="17"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="15"/>
@@ -6835,7 +7334,7 @@
       <c r="N173" s="17"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="15"/>
@@ -6852,7 +7351,7 @@
       <c r="N174" s="17"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="15"/>
@@ -6869,7 +7368,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="15"/>
@@ -6886,7 +7385,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="15"/>
@@ -6903,7 +7402,7 @@
       <c r="N177" s="17"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="15"/>
@@ -6920,7 +7419,7 @@
       <c r="N178" s="17"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="15"/>
@@ -6937,7 +7436,7 @@
       <c r="N179" s="17"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="15"/>
@@ -6954,7 +7453,7 @@
       <c r="N180" s="17"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="15"/>
@@ -6971,7 +7470,7 @@
       <c r="N181" s="17"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="15"/>
@@ -6988,7 +7487,7 @@
       <c r="N182" s="17"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="15"/>
@@ -7005,7 +7504,7 @@
       <c r="N183" s="17"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="15"/>
@@ -7022,7 +7521,7 @@
       <c r="N184" s="17"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="15"/>
@@ -7039,7 +7538,7 @@
       <c r="N185" s="17"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="15"/>
@@ -7056,7 +7555,7 @@
       <c r="N186" s="17"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="15"/>
@@ -7073,7 +7572,7 @@
       <c r="N187" s="17"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="15"/>
@@ -7090,7 +7589,7 @@
       <c r="N188" s="17"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="15"/>
@@ -7107,7 +7606,7 @@
       <c r="N189" s="17"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="15"/>
@@ -7124,7 +7623,7 @@
       <c r="N190" s="17"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="15"/>
@@ -7141,7 +7640,7 @@
       <c r="N191" s="17"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="15"/>
@@ -7158,7 +7657,7 @@
       <c r="N192" s="17"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="15"/>
@@ -7175,7 +7674,7 @@
       <c r="N193" s="17"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="15"/>
@@ -7192,7 +7691,7 @@
       <c r="N194" s="17"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="15"/>
@@ -7209,7 +7708,7 @@
       <c r="N195" s="17"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="15"/>
@@ -7226,7 +7725,7 @@
       <c r="N196" s="17"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="15"/>
@@ -7243,7 +7742,7 @@
       <c r="N197" s="17"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="15"/>
@@ -7260,7 +7759,7 @@
       <c r="N198" s="17"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="15"/>
@@ -7277,7 +7776,7 @@
       <c r="N199" s="17"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="15"/>
@@ -7294,7 +7793,7 @@
       <c r="N200" s="17"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="15"/>
@@ -7311,7 +7810,7 @@
       <c r="N201" s="17"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="15"/>
@@ -7328,7 +7827,7 @@
       <c r="N202" s="17"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="15"/>
@@ -7345,7 +7844,7 @@
       <c r="N203" s="17"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="15"/>
@@ -7362,7 +7861,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="15"/>
@@ -7379,7 +7878,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="15"/>
@@ -7396,7 +7895,7 @@
       <c r="N206" s="17"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="15"/>
@@ -7413,7 +7912,7 @@
       <c r="N207" s="17"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="15"/>
@@ -7430,7 +7929,7 @@
       <c r="N208" s="17"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="15"/>
@@ -7447,7 +7946,7 @@
       <c r="N209" s="17"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="15"/>
@@ -7464,7 +7963,7 @@
       <c r="N210" s="17"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="15"/>
@@ -7481,7 +7980,7 @@
       <c r="N211" s="17"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="15"/>
@@ -7498,7 +7997,7 @@
       <c r="N212" s="17"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="15"/>
@@ -7515,7 +8014,7 @@
       <c r="N213" s="17"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="15"/>
@@ -7532,7 +8031,7 @@
       <c r="N214" s="17"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="15"/>
@@ -7549,7 +8048,7 @@
       <c r="N215" s="17"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="15"/>
@@ -7566,7 +8065,7 @@
       <c r="N216" s="17"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="15"/>
@@ -7583,7 +8082,7 @@
       <c r="N217" s="17"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="15"/>
@@ -7600,7 +8099,7 @@
       <c r="N218" s="17"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="15"/>
@@ -7617,7 +8116,7 @@
       <c r="N219" s="17"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="15"/>
@@ -7634,7 +8133,7 @@
       <c r="N220" s="17"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="15"/>
@@ -7651,7 +8150,7 @@
       <c r="N221" s="17"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="15"/>
@@ -7668,7 +8167,7 @@
       <c r="N222" s="17"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="15"/>
@@ -7685,7 +8184,7 @@
       <c r="N223" s="17"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="15"/>
@@ -7702,7 +8201,7 @@
       <c r="N224" s="17"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="15"/>
@@ -7719,7 +8218,7 @@
       <c r="N225" s="17"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="15"/>
@@ -7736,7 +8235,7 @@
       <c r="N226" s="17"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="15"/>
@@ -7753,7 +8252,7 @@
       <c r="N227" s="17"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="15"/>
@@ -7770,7 +8269,7 @@
       <c r="N228" s="17"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="15"/>
@@ -7787,7 +8286,7 @@
       <c r="N229" s="17"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="15"/>
@@ -7804,7 +8303,7 @@
       <c r="N230" s="17"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="15"/>
@@ -7821,7 +8320,7 @@
       <c r="N231" s="17"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="15"/>
@@ -7838,7 +8337,7 @@
       <c r="N232" s="17"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="15"/>
@@ -7855,7 +8354,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="15"/>
@@ -7872,7 +8371,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="15"/>
@@ -7889,7 +8388,7 @@
       <c r="N235" s="17"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="15"/>
@@ -7906,7 +8405,7 @@
       <c r="N236" s="17"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="15"/>
@@ -7923,7 +8422,7 @@
       <c r="N237" s="17"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="15"/>
@@ -7940,7 +8439,7 @@
       <c r="N238" s="17"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="15"/>
@@ -7957,7 +8456,7 @@
       <c r="N239" s="17"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="15"/>
@@ -7974,7 +8473,7 @@
       <c r="N240" s="17"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="15"/>
@@ -7991,7 +8490,7 @@
       <c r="N241" s="17"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="15"/>
@@ -8008,7 +8507,7 @@
       <c r="N242" s="17"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="15"/>
@@ -8025,7 +8524,7 @@
       <c r="N243" s="17"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="15"/>
@@ -8042,7 +8541,7 @@
       <c r="N244" s="17"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="15"/>
@@ -8059,7 +8558,7 @@
       <c r="N245" s="17"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="15"/>
@@ -8076,7 +8575,7 @@
       <c r="N246" s="17"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="15"/>
@@ -8093,7 +8592,7 @@
       <c r="N247" s="17"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="15"/>
@@ -8110,7 +8609,7 @@
       <c r="N248" s="17"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="15"/>
@@ -8127,7 +8626,7 @@
       <c r="N249" s="17"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="15"/>
@@ -8144,7 +8643,7 @@
       <c r="N250" s="17"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="15"/>
@@ -8161,7 +8660,7 @@
       <c r="N251" s="17"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="15"/>
@@ -8178,7 +8677,7 @@
       <c r="N252" s="17"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="15"/>
@@ -8195,7 +8694,7 @@
       <c r="N253" s="17"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="15"/>
@@ -8212,7 +8711,7 @@
       <c r="N254" s="17"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="15"/>
@@ -8229,7 +8728,7 @@
       <c r="N255" s="17"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="15"/>
@@ -8246,7 +8745,7 @@
       <c r="N256" s="17"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="15"/>
@@ -8263,7 +8762,7 @@
       <c r="N257" s="17"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="15"/>
@@ -8280,7 +8779,7 @@
       <c r="N258" s="17"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="15"/>
@@ -8297,7 +8796,7 @@
       <c r="N259" s="17"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="15"/>
@@ -8314,7 +8813,7 @@
       <c r="N260" s="17"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="15"/>
@@ -8331,7 +8830,7 @@
       <c r="N261" s="17"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="15"/>
@@ -8348,7 +8847,7 @@
       <c r="N262" s="17"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="15"/>
@@ -8365,7 +8864,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="15"/>
@@ -8382,7 +8881,7 @@
       <c r="N264" s="17"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="15"/>
@@ -8399,7 +8898,7 @@
       <c r="N265" s="17"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="15"/>
@@ -8416,7 +8915,7 @@
       <c r="N266" s="17"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="15"/>
@@ -8433,7 +8932,7 @@
       <c r="N267" s="17"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="15"/>
@@ -8450,7 +8949,7 @@
       <c r="N268" s="17"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="15"/>
@@ -8467,7 +8966,7 @@
       <c r="N269" s="17"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="15"/>
@@ -8484,7 +8983,7 @@
       <c r="N270" s="17"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="15"/>
@@ -8501,7 +9000,7 @@
       <c r="N271" s="17"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="15"/>
@@ -8518,7 +9017,7 @@
       <c r="N272" s="17"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="15"/>
@@ -8535,7 +9034,7 @@
       <c r="N273" s="17"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="15"/>
@@ -8552,7 +9051,7 @@
       <c r="N274" s="17"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="15"/>
@@ -8569,7 +9068,7 @@
       <c r="N275" s="17"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="15"/>
@@ -8586,7 +9085,7 @@
       <c r="N276" s="17"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="15"/>
@@ -8603,7 +9102,7 @@
       <c r="N277" s="17"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="15"/>
@@ -8620,7 +9119,7 @@
       <c r="N278" s="17"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="15"/>
@@ -8637,7 +9136,7 @@
       <c r="N279" s="17"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="15"/>
@@ -8654,7 +9153,7 @@
       <c r="N280" s="17"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="15"/>
@@ -8671,7 +9170,7 @@
       <c r="N281" s="17"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="15"/>
@@ -8688,7 +9187,7 @@
       <c r="N282" s="17"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="15"/>
@@ -8705,7 +9204,7 @@
       <c r="N283" s="17"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="15"/>
@@ -8722,7 +9221,7 @@
       <c r="N284" s="17"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="15"/>
@@ -8739,7 +9238,7 @@
       <c r="N285" s="17"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="15"/>
@@ -8756,7 +9255,7 @@
       <c r="N286" s="17"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="15"/>
@@ -8773,7 +9272,7 @@
       <c r="N287" s="17"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="15"/>
@@ -8790,7 +9289,7 @@
       <c r="N288" s="17"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="15"/>
@@ -8807,7 +9306,7 @@
       <c r="N289" s="17"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="15"/>
@@ -8824,7 +9323,7 @@
       <c r="N290" s="17"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="15"/>
@@ -8841,7 +9340,7 @@
       <c r="N291" s="17"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="15"/>
@@ -8858,7 +9357,7 @@
       <c r="N292" s="17"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="15"/>
@@ -8875,7 +9374,7 @@
       <c r="N293" s="17"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="15"/>
@@ -8892,7 +9391,7 @@
       <c r="N294" s="17"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="15"/>
@@ -8909,7 +9408,7 @@
       <c r="N295" s="17"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="15"/>
@@ -8926,7 +9425,7 @@
       <c r="N296" s="17"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="15"/>
@@ -8943,7 +9442,7 @@
       <c r="N297" s="17"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="15"/>
@@ -8960,7 +9459,7 @@
       <c r="N298" s="17"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="15"/>
@@ -8977,7 +9476,7 @@
       <c r="N299" s="17"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="15"/>
@@ -8994,7 +9493,7 @@
       <c r="N300" s="17"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="15"/>
@@ -9011,7 +9510,7 @@
       <c r="N301" s="17"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="15"/>
@@ -9028,7 +9527,7 @@
       <c r="N302" s="17"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="15"/>
@@ -9045,7 +9544,7 @@
       <c r="N303" s="17"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="15"/>
@@ -9062,7 +9561,7 @@
       <c r="N304" s="17"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="15"/>
@@ -9079,7 +9578,7 @@
       <c r="N305" s="17"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="15"/>
@@ -9096,7 +9595,7 @@
       <c r="N306" s="17"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="15"/>
@@ -9113,7 +9612,7 @@
       <c r="N307" s="17"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="15"/>
@@ -9130,7 +9629,7 @@
       <c r="N308" s="17"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="15"/>
@@ -9147,7 +9646,7 @@
       <c r="N309" s="17"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="15"/>
@@ -9164,7 +9663,7 @@
       <c r="N310" s="17"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="15"/>
@@ -9181,7 +9680,7 @@
       <c r="N311" s="17"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="15"/>
@@ -9198,7 +9697,7 @@
       <c r="N312" s="17"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="15"/>
@@ -9215,7 +9714,7 @@
       <c r="N313" s="17"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="15"/>
@@ -9232,7 +9731,7 @@
       <c r="N314" s="17"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="15"/>
@@ -9249,7 +9748,7 @@
       <c r="N315" s="17"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="15"/>
@@ -9266,7 +9765,7 @@
       <c r="N316" s="17"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="15"/>
@@ -9283,7 +9782,7 @@
       <c r="N317" s="17"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="15"/>
@@ -9300,7 +9799,7 @@
       <c r="N318" s="17"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="15"/>
@@ -9317,7 +9816,7 @@
       <c r="N319" s="17"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="15"/>
@@ -9334,7 +9833,7 @@
       <c r="N320" s="17"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="15"/>
@@ -9351,7 +9850,7 @@
       <c r="N321" s="17"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="15"/>
@@ -9368,7 +9867,7 @@
       <c r="N322" s="17"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="15"/>
@@ -9385,7 +9884,7 @@
       <c r="N323" s="17"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="15"/>
@@ -9402,7 +9901,7 @@
       <c r="N324" s="17"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="15"/>
@@ -9419,7 +9918,7 @@
       <c r="N325" s="17"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="15"/>
@@ -9436,7 +9935,7 @@
       <c r="N326" s="17"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="15"/>
@@ -9453,7 +9952,7 @@
       <c r="N327" s="17"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="15"/>
@@ -9470,7 +9969,7 @@
       <c r="N328" s="17"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="15"/>
@@ -9487,7 +9986,7 @@
       <c r="N329" s="17"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="15"/>
@@ -9504,7 +10003,7 @@
       <c r="N330" s="17"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="15"/>
@@ -9521,7 +10020,7 @@
       <c r="N331" s="17"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="15"/>
@@ -9538,7 +10037,7 @@
       <c r="N332" s="17"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="15"/>
@@ -9555,7 +10054,7 @@
       <c r="N333" s="17"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="15"/>
@@ -9572,7 +10071,7 @@
       <c r="N334" s="17"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="15"/>
@@ -9589,7 +10088,7 @@
       <c r="N335" s="17"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="15"/>
@@ -9606,7 +10105,7 @@
       <c r="N336" s="17"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="15"/>
@@ -9623,7 +10122,7 @@
       <c r="N337" s="17"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="15"/>
@@ -9640,7 +10139,7 @@
       <c r="N338" s="17"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="15"/>
@@ -9657,7 +10156,7 @@
       <c r="N339" s="17"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="15"/>
@@ -9674,7 +10173,7 @@
       <c r="N340" s="17"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="15"/>
@@ -9691,7 +10190,7 @@
       <c r="N341" s="17"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="15"/>
@@ -9708,7 +10207,7 @@
       <c r="N342" s="17"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="15"/>
@@ -9725,7 +10224,7 @@
       <c r="N343" s="17"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="15"/>
@@ -9742,7 +10241,7 @@
       <c r="N344" s="17"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="15"/>
@@ -9759,7 +10258,7 @@
       <c r="N345" s="17"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="15"/>
@@ -9776,7 +10275,7 @@
       <c r="N346" s="17"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="15"/>
@@ -9793,7 +10292,7 @@
       <c r="N347" s="17"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="15"/>
@@ -9810,7 +10309,7 @@
       <c r="N348" s="17"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="15"/>
@@ -9827,7 +10326,7 @@
       <c r="N349" s="17"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="15"/>
@@ -9844,7 +10343,7 @@
       <c r="N350" s="17"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="15"/>
@@ -9861,7 +10360,7 @@
       <c r="N351" s="17"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="15"/>
@@ -9878,7 +10377,7 @@
       <c r="N352" s="17"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="15"/>
@@ -9895,7 +10394,7 @@
       <c r="N353" s="17"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="15"/>
@@ -9912,7 +10411,7 @@
       <c r="N354" s="17"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="15"/>
@@ -9929,7 +10428,7 @@
       <c r="N355" s="17"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="15"/>
@@ -9946,7 +10445,7 @@
       <c r="N356" s="17"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="15"/>
@@ -9963,7 +10462,7 @@
       <c r="N357" s="17"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="15"/>
@@ -9980,7 +10479,7 @@
       <c r="N358" s="17"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="15"/>
@@ -9997,7 +10496,7 @@
       <c r="N359" s="17"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="15"/>
@@ -10014,7 +10513,7 @@
       <c r="N360" s="17"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="15"/>
@@ -10031,7 +10530,7 @@
       <c r="N361" s="17"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="15"/>
@@ -10048,7 +10547,7 @@
       <c r="N362" s="17"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="15"/>
@@ -10065,7 +10564,7 @@
       <c r="N363" s="17"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="15"/>
@@ -10082,7 +10581,7 @@
       <c r="N364" s="17"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="15"/>
@@ -10099,7 +10598,7 @@
       <c r="N365" s="17"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="15"/>
@@ -10116,7 +10615,7 @@
       <c r="N366" s="17"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="15"/>
@@ -10133,7 +10632,7 @@
       <c r="N367" s="17"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="15"/>
@@ -10150,7 +10649,7 @@
       <c r="N368" s="17"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="15"/>
@@ -10167,7 +10666,7 @@
       <c r="N369" s="17"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="15"/>
@@ -10184,7 +10683,7 @@
       <c r="N370" s="17"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="15"/>
@@ -10201,7 +10700,7 @@
       <c r="N371" s="17"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="15"/>
@@ -10218,7 +10717,7 @@
       <c r="N372" s="17"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="15"/>
@@ -10235,7 +10734,7 @@
       <c r="N373" s="17"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="15"/>
@@ -10252,7 +10751,7 @@
       <c r="N374" s="17"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="15"/>
@@ -10269,7 +10768,7 @@
       <c r="N375" s="17"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="15"/>
@@ -10286,7 +10785,7 @@
       <c r="N376" s="17"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="15"/>
@@ -10303,7 +10802,7 @@
       <c r="N377" s="17"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="15"/>
@@ -10320,7 +10819,7 @@
       <c r="N378" s="17"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="15"/>
@@ -10337,7 +10836,7 @@
       <c r="N379" s="17"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="15"/>
@@ -10354,7 +10853,7 @@
       <c r="N380" s="17"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="15"/>
@@ -10371,7 +10870,7 @@
       <c r="N381" s="17"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="15"/>
@@ -10388,7 +10887,7 @@
       <c r="N382" s="17"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="15"/>
@@ -10405,7 +10904,7 @@
       <c r="N383" s="17"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="15"/>
@@ -10422,7 +10921,7 @@
       <c r="N384" s="17"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="15"/>
@@ -10439,7 +10938,7 @@
       <c r="N385" s="17"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="15"/>
@@ -10456,7 +10955,7 @@
       <c r="N386" s="17"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="15"/>
@@ -10473,7 +10972,7 @@
       <c r="N387" s="17"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="15"/>
@@ -10490,7 +10989,7 @@
       <c r="N388" s="17"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="15"/>
@@ -10507,7 +11006,7 @@
       <c r="N389" s="17"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="15"/>
@@ -10524,7 +11023,7 @@
       <c r="N390" s="17"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="15"/>
@@ -10541,7 +11040,7 @@
       <c r="N391" s="17"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="15"/>
@@ -10558,7 +11057,7 @@
       <c r="N392" s="17"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="15"/>
@@ -10575,7 +11074,7 @@
       <c r="N393" s="17"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="15"/>
@@ -10592,7 +11091,7 @@
       <c r="N394" s="17"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="15"/>
@@ -10609,7 +11108,7 @@
       <c r="N395" s="17"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="15"/>
@@ -10626,7 +11125,7 @@
       <c r="N396" s="17"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="15"/>
@@ -10643,7 +11142,7 @@
       <c r="N397" s="17"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="15"/>
@@ -10660,7 +11159,7 @@
       <c r="N398" s="17"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="15"/>
@@ -10677,7 +11176,7 @@
       <c r="N399" s="17"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="15"/>
@@ -10694,7 +11193,7 @@
       <c r="N400" s="17"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="15"/>
@@ -10711,7 +11210,7 @@
       <c r="N401" s="17"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="15"/>
@@ -10728,7 +11227,7 @@
       <c r="N402" s="17"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="15"/>
@@ -10745,7 +11244,7 @@
       <c r="N403" s="17"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="15"/>
@@ -10762,7 +11261,7 @@
       <c r="N404" s="17"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="15"/>
@@ -10779,7 +11278,7 @@
       <c r="N405" s="17"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="15"/>
@@ -10796,7 +11295,7 @@
       <c r="N406" s="17"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="15"/>
@@ -10813,7 +11312,7 @@
       <c r="N407" s="17"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="15"/>
@@ -10830,7 +11329,7 @@
       <c r="N408" s="17"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="15"/>
@@ -10847,7 +11346,7 @@
       <c r="N409" s="17"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="15"/>
@@ -10864,7 +11363,7 @@
       <c r="N410" s="17"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="15"/>
@@ -10881,7 +11380,7 @@
       <c r="N411" s="17"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="15"/>
@@ -10898,7 +11397,7 @@
       <c r="N412" s="17"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="15"/>
@@ -10915,7 +11414,7 @@
       <c r="N413" s="17"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="15"/>
@@ -10932,7 +11431,7 @@
       <c r="N414" s="17"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="15"/>
@@ -10949,7 +11448,7 @@
       <c r="N415" s="17"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="15"/>
@@ -10966,7 +11465,7 @@
       <c r="N416" s="17"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="15"/>
@@ -10983,7 +11482,7 @@
       <c r="N417" s="17"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="15"/>
@@ -11000,7 +11499,7 @@
       <c r="N418" s="17"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="15"/>
@@ -11017,7 +11516,7 @@
       <c r="N419" s="17"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="15"/>
@@ -11034,7 +11533,7 @@
       <c r="N420" s="17"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="15"/>
@@ -11051,7 +11550,7 @@
       <c r="N421" s="17"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="15"/>
@@ -11068,7 +11567,7 @@
       <c r="N422" s="17"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="15"/>
@@ -11085,7 +11584,7 @@
       <c r="N423" s="17"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="15"/>
@@ -11102,7 +11601,7 @@
       <c r="N424" s="17"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="15"/>
@@ -11119,7 +11618,7 @@
       <c r="N425" s="17"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="15"/>
@@ -11136,7 +11635,7 @@
       <c r="N426" s="17"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="15"/>
@@ -11153,7 +11652,7 @@
       <c r="N427" s="17"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="15"/>
@@ -11170,7 +11669,7 @@
       <c r="N428" s="17"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="15"/>
@@ -11187,7 +11686,7 @@
       <c r="N429" s="17"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="15"/>
@@ -11204,7 +11703,7 @@
       <c r="N430" s="17"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="15"/>
@@ -11221,7 +11720,7 @@
       <c r="N431" s="17"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="15"/>
@@ -11238,7 +11737,7 @@
       <c r="N432" s="17"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="15"/>
@@ -11255,7 +11754,7 @@
       <c r="N433" s="17"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="15"/>
@@ -11272,7 +11771,7 @@
       <c r="N434" s="17"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="15"/>
@@ -11289,7 +11788,7 @@
       <c r="N435" s="17"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="15"/>
@@ -11306,7 +11805,7 @@
       <c r="N436" s="17"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="15"/>
@@ -11323,7 +11822,7 @@
       <c r="N437" s="17"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="15"/>
@@ -11340,7 +11839,7 @@
       <c r="N438" s="17"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="15"/>
@@ -11357,7 +11856,7 @@
       <c r="N439" s="17"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="15"/>
@@ -11374,7 +11873,7 @@
       <c r="N440" s="17"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="15"/>
@@ -11391,7 +11890,7 @@
       <c r="N441" s="17"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="15"/>
@@ -11408,7 +11907,7 @@
       <c r="N442" s="17"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="15"/>
@@ -11425,7 +11924,7 @@
       <c r="N443" s="17"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="15"/>
@@ -11442,7 +11941,7 @@
       <c r="N444" s="17"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="15"/>
@@ -11459,7 +11958,7 @@
       <c r="N445" s="17"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="15"/>
@@ -11476,7 +11975,7 @@
       <c r="N446" s="17"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="15"/>
@@ -11493,7 +11992,7 @@
       <c r="N447" s="17"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="15"/>
@@ -11510,7 +12009,7 @@
       <c r="N448" s="17"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="15"/>
@@ -11527,7 +12026,7 @@
       <c r="N449" s="17"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="15"/>
@@ -11544,7 +12043,7 @@
       <c r="N450" s="17"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="15"/>
@@ -11561,7 +12060,7 @@
       <c r="N451" s="17"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="15"/>
@@ -11578,7 +12077,7 @@
       <c r="N452" s="17"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="15"/>
@@ -11595,7 +12094,7 @@
       <c r="N453" s="17"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="15"/>
@@ -11612,7 +12111,7 @@
       <c r="N454" s="17"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="15"/>
@@ -11629,7 +12128,7 @@
       <c r="N455" s="17"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="15"/>
@@ -11646,7 +12145,7 @@
       <c r="N456" s="17"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="15"/>
@@ -11663,7 +12162,7 @@
       <c r="N457" s="17"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="15"/>
@@ -11680,7 +12179,7 @@
       <c r="N458" s="17"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="15"/>
@@ -11697,7 +12196,7 @@
       <c r="N459" s="17"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="15"/>
@@ -11714,7 +12213,7 @@
       <c r="N460" s="17"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="15"/>
@@ -11731,7 +12230,7 @@
       <c r="N461" s="17"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="15"/>
@@ -11748,7 +12247,7 @@
       <c r="N462" s="17"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="15"/>
@@ -11765,7 +12264,7 @@
       <c r="N463" s="17"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="15"/>
@@ -11782,7 +12281,7 @@
       <c r="N464" s="17"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="15"/>
@@ -11799,7 +12298,7 @@
       <c r="N465" s="17"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="15"/>
@@ -11816,7 +12315,7 @@
       <c r="N466" s="17"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="15"/>
@@ -11833,7 +12332,7 @@
       <c r="N467" s="17"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="15"/>
@@ -11850,7 +12349,7 @@
       <c r="N468" s="17"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="15"/>
@@ -11867,7 +12366,7 @@
       <c r="N469" s="17"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="15"/>
@@ -11884,7 +12383,7 @@
       <c r="N470" s="17"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="15"/>
@@ -11901,7 +12400,7 @@
       <c r="N471" s="17"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="15"/>
@@ -11918,7 +12417,7 @@
       <c r="N472" s="17"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="15"/>
@@ -11935,7 +12434,7 @@
       <c r="N473" s="17"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="15"/>
@@ -11952,7 +12451,7 @@
       <c r="N474" s="17"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="15"/>
@@ -11969,7 +12468,7 @@
       <c r="N475" s="17"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="15"/>
@@ -11986,7 +12485,7 @@
       <c r="N476" s="17"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="15"/>
@@ -12003,7 +12502,7 @@
       <c r="N477" s="17"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="15"/>
@@ -12020,7 +12519,7 @@
       <c r="N478" s="17"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="15"/>
@@ -12037,7 +12536,7 @@
       <c r="N479" s="17"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="15"/>
@@ -12054,7 +12553,7 @@
       <c r="N480" s="17"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="15"/>
@@ -12071,7 +12570,7 @@
       <c r="N481" s="17"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="15"/>
@@ -12088,7 +12587,7 @@
       <c r="N482" s="17"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="15"/>
@@ -12105,7 +12604,7 @@
       <c r="N483" s="17"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="15"/>
@@ -12122,7 +12621,7 @@
       <c r="N484" s="17"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="15"/>
@@ -12139,7 +12638,7 @@
       <c r="N485" s="17"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="15"/>
@@ -12156,7 +12655,7 @@
       <c r="N486" s="17"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="15"/>
@@ -12173,7 +12672,7 @@
       <c r="N487" s="17"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="15"/>
@@ -12190,7 +12689,7 @@
       <c r="N488" s="17"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="15"/>
@@ -12207,7 +12706,7 @@
       <c r="N489" s="17"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="15"/>
@@ -12224,7 +12723,7 @@
       <c r="N490" s="17"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="15"/>
@@ -12241,7 +12740,7 @@
       <c r="N491" s="17"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="15"/>
@@ -12258,7 +12757,7 @@
       <c r="N492" s="17"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="15"/>
@@ -12275,7 +12774,7 @@
       <c r="N493" s="17"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="15"/>
@@ -12292,7 +12791,7 @@
       <c r="N494" s="17"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="15"/>
@@ -12309,7 +12808,7 @@
       <c r="N495" s="17"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="15"/>
@@ -12326,7 +12825,7 @@
       <c r="N496" s="17"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="15"/>
@@ -12343,7 +12842,7 @@
       <c r="N497" s="17"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="15"/>
@@ -12360,7 +12859,7 @@
       <c r="N498" s="17"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="15"/>
@@ -12377,7 +12876,7 @@
       <c r="N499" s="17"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="15"/>
@@ -12394,7 +12893,7 @@
       <c r="N500" s="17"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="15"/>
@@ -12411,7 +12910,7 @@
       <c r="N501" s="17"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="15"/>
@@ -12428,7 +12927,7 @@
       <c r="N502" s="17"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="15"/>
@@ -12445,7 +12944,7 @@
       <c r="N503" s="17"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="15"/>
@@ -12462,7 +12961,7 @@
       <c r="N504" s="17"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="15"/>
@@ -12479,7 +12978,7 @@
       <c r="N505" s="17"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="15"/>
@@ -12496,7 +12995,7 @@
       <c r="N506" s="17"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="15"/>
@@ -12513,7 +13012,7 @@
       <c r="N507" s="17"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="15"/>
@@ -12530,7 +13029,7 @@
       <c r="N508" s="17"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="15"/>
@@ -12547,7 +13046,7 @@
       <c r="N509" s="17"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="15"/>
@@ -12564,7 +13063,7 @@
       <c r="N510" s="17"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="15"/>
@@ -12581,7 +13080,7 @@
       <c r="N511" s="17"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="15"/>
@@ -12598,7 +13097,7 @@
       <c r="N512" s="17"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="15"/>
@@ -12615,7 +13114,7 @@
       <c r="N513" s="17"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="15"/>
@@ -12632,7 +13131,7 @@
       <c r="N514" s="17"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="15"/>
@@ -12649,7 +13148,7 @@
       <c r="N515" s="17"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="15"/>
@@ -12666,7 +13165,7 @@
       <c r="N516" s="17"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="15"/>
@@ -12683,7 +13182,7 @@
       <c r="N517" s="17"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="15"/>
@@ -12700,7 +13199,7 @@
       <c r="N518" s="17"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="15"/>
@@ -12717,7 +13216,7 @@
       <c r="N519" s="17"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="15"/>
@@ -12734,7 +13233,7 @@
       <c r="N520" s="17"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="15"/>
@@ -12751,7 +13250,7 @@
       <c r="N521" s="17"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="15"/>
@@ -12768,7 +13267,7 @@
       <c r="N522" s="17"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="15"/>
@@ -12785,7 +13284,7 @@
       <c r="N523" s="17"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="15"/>
@@ -12802,7 +13301,7 @@
       <c r="N524" s="17"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="15"/>
@@ -12819,7 +13318,7 @@
       <c r="N525" s="17"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="15"/>
@@ -12836,7 +13335,7 @@
       <c r="N526" s="17"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="15"/>
@@ -12853,7 +13352,7 @@
       <c r="N527" s="17"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="15"/>
@@ -12870,7 +13369,7 @@
       <c r="N528" s="17"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="15"/>
@@ -12887,7 +13386,7 @@
       <c r="N529" s="17"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="15"/>
@@ -12904,7 +13403,7 @@
       <c r="N530" s="17"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="15"/>
@@ -12921,7 +13420,7 @@
       <c r="N531" s="17"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="15"/>
@@ -12938,7 +13437,7 @@
       <c r="N532" s="17"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="15"/>
@@ -12955,7 +13454,7 @@
       <c r="N533" s="17"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="15"/>
@@ -12972,7 +13471,7 @@
       <c r="N534" s="17"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="15"/>
@@ -12989,7 +13488,7 @@
       <c r="N535" s="17"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="15"/>
@@ -13006,7 +13505,7 @@
       <c r="N536" s="17"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="15"/>
@@ -13023,7 +13522,7 @@
       <c r="N537" s="17"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="15"/>
@@ -13040,7 +13539,7 @@
       <c r="N538" s="17"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="15"/>
@@ -13057,7 +13556,7 @@
       <c r="N539" s="17"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="15"/>
@@ -13074,7 +13573,7 @@
       <c r="N540" s="17"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="15"/>
@@ -13091,7 +13590,7 @@
       <c r="N541" s="17"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="15"/>
@@ -13108,7 +13607,7 @@
       <c r="N542" s="17"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="15"/>
@@ -13125,7 +13624,7 @@
       <c r="N543" s="17"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="15"/>
@@ -13142,7 +13641,7 @@
       <c r="N544" s="17"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="15"/>
@@ -13159,7 +13658,7 @@
       <c r="N545" s="17"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="15"/>
@@ -13176,7 +13675,7 @@
       <c r="N546" s="17"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="15"/>
@@ -13193,7 +13692,7 @@
       <c r="N547" s="17"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="15"/>
@@ -13210,7 +13709,7 @@
       <c r="N548" s="17"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="15"/>
@@ -13227,7 +13726,7 @@
       <c r="N549" s="17"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="15"/>
@@ -13244,7 +13743,7 @@
       <c r="N550" s="17"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="15"/>
@@ -13261,7 +13760,7 @@
       <c r="N551" s="17"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="15"/>
@@ -13278,7 +13777,7 @@
       <c r="N552" s="17"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="15"/>
@@ -13295,7 +13794,7 @@
       <c r="N553" s="17"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="15"/>
@@ -13312,7 +13811,7 @@
       <c r="N554" s="17"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="15"/>
@@ -13329,7 +13828,7 @@
       <c r="N555" s="17"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="15"/>
@@ -13346,7 +13845,7 @@
       <c r="N556" s="17"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="15"/>
@@ -13363,7 +13862,7 @@
       <c r="N557" s="17"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="15"/>
@@ -13380,7 +13879,7 @@
       <c r="N558" s="17"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="15"/>
@@ -13397,7 +13896,7 @@
       <c r="N559" s="17"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="15"/>
@@ -13414,7 +13913,7 @@
       <c r="N560" s="17"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="15"/>
@@ -13431,7 +13930,7 @@
       <c r="N561" s="17"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="15"/>
@@ -13448,7 +13947,7 @@
       <c r="N562" s="17"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="15"/>
@@ -13465,7 +13964,7 @@
       <c r="N563" s="17"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="15"/>
@@ -13482,7 +13981,7 @@
       <c r="N564" s="17"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="15"/>
@@ -13499,7 +13998,7 @@
       <c r="N565" s="17"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="15"/>
@@ -13516,7 +14015,7 @@
       <c r="N566" s="17"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="15"/>
@@ -13533,7 +14032,7 @@
       <c r="N567" s="17"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="15"/>
@@ -13550,7 +14049,7 @@
       <c r="N568" s="17"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="15"/>
@@ -13567,7 +14066,7 @@
       <c r="N569" s="17"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="15"/>
@@ -13584,7 +14083,7 @@
       <c r="N570" s="17"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="15"/>
@@ -13601,7 +14100,7 @@
       <c r="N571" s="17"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="15"/>
@@ -13618,7 +14117,7 @@
       <c r="N572" s="17"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="15"/>
@@ -13635,7 +14134,7 @@
       <c r="N573" s="17"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="15"/>
@@ -13652,7 +14151,7 @@
       <c r="N574" s="17"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="15"/>
@@ -13669,7 +14168,7 @@
       <c r="N575" s="17"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="15"/>
@@ -13686,7 +14185,7 @@
       <c r="N576" s="17"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="15"/>
@@ -13703,7 +14202,7 @@
       <c r="N577" s="17"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="15"/>
@@ -13720,7 +14219,7 @@
       <c r="N578" s="17"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="15"/>
@@ -13737,7 +14236,7 @@
       <c r="N579" s="17"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="15"/>
@@ -13754,7 +14253,7 @@
       <c r="N580" s="17"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="15"/>
@@ -13771,7 +14270,7 @@
       <c r="N581" s="17"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="15"/>
@@ -13788,7 +14287,7 @@
       <c r="N582" s="17"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="15"/>
@@ -13805,7 +14304,7 @@
       <c r="N583" s="17"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="15"/>
@@ -13822,7 +14321,7 @@
       <c r="N584" s="17"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="15"/>
@@ -13839,7 +14338,7 @@
       <c r="N585" s="17"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="15"/>
@@ -13856,7 +14355,7 @@
       <c r="N586" s="17"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="15"/>
@@ -13873,7 +14372,7 @@
       <c r="N587" s="17"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="15"/>
@@ -13890,7 +14389,7 @@
       <c r="N588" s="17"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="15"/>
@@ -13907,7 +14406,7 @@
       <c r="N589" s="17"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="15"/>
@@ -13924,7 +14423,7 @@
       <c r="N590" s="17"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="15"/>
@@ -13941,7 +14440,7 @@
       <c r="N591" s="17"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="15"/>
@@ -13958,7 +14457,7 @@
       <c r="N592" s="17"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="15"/>
@@ -13975,7 +14474,7 @@
       <c r="N593" s="17"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="15"/>
@@ -13992,7 +14491,7 @@
       <c r="N594" s="17"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="15"/>
@@ -14009,7 +14508,7 @@
       <c r="N595" s="17"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="15"/>
@@ -14026,7 +14525,7 @@
       <c r="N596" s="17"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="15"/>
@@ -14043,7 +14542,7 @@
       <c r="N597" s="17"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="15"/>
@@ -14060,7 +14559,7 @@
       <c r="N598" s="17"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="15"/>
@@ -14077,7 +14576,7 @@
       <c r="N599" s="17"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="15"/>
@@ -14094,7 +14593,7 @@
       <c r="N600" s="17"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="15"/>
@@ -14111,7 +14610,7 @@
       <c r="N601" s="17"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="15"/>
@@ -14128,7 +14627,7 @@
       <c r="N602" s="17"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="15"/>
@@ -14145,7 +14644,7 @@
       <c r="N603" s="17"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="15"/>
@@ -14162,7 +14661,7 @@
       <c r="N604" s="17"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="15"/>
@@ -14179,7 +14678,7 @@
       <c r="N605" s="17"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="15"/>
@@ -14196,7 +14695,7 @@
       <c r="N606" s="17"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="15"/>
@@ -14213,7 +14712,7 @@
       <c r="N607" s="17"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="15"/>
@@ -14230,7 +14729,7 @@
       <c r="N608" s="17"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="15"/>
@@ -14247,7 +14746,7 @@
       <c r="N609" s="17"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="15"/>
@@ -14264,7 +14763,7 @@
       <c r="N610" s="17"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="15"/>
@@ -14281,7 +14780,7 @@
       <c r="N611" s="17"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="15"/>
@@ -14298,7 +14797,7 @@
       <c r="N612" s="17"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="15"/>
@@ -14315,7 +14814,7 @@
       <c r="N613" s="17"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="15"/>
@@ -14332,7 +14831,7 @@
       <c r="N614" s="17"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="15"/>
@@ -14349,7 +14848,7 @@
       <c r="N615" s="17"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="15"/>
@@ -14366,7 +14865,7 @@
       <c r="N616" s="17"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="15"/>
@@ -14383,7 +14882,7 @@
       <c r="N617" s="17"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="15"/>
@@ -14400,7 +14899,7 @@
       <c r="N618" s="17"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="15"/>
@@ -14417,7 +14916,7 @@
       <c r="N619" s="17"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="15"/>
@@ -14434,7 +14933,7 @@
       <c r="N620" s="17"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="15"/>
@@ -14451,7 +14950,7 @@
       <c r="N621" s="17"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="15"/>
@@ -14468,7 +14967,7 @@
       <c r="N622" s="17"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="15"/>
@@ -14485,7 +14984,7 @@
       <c r="N623" s="17"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="15"/>
@@ -14502,7 +15001,7 @@
       <c r="N624" s="17"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="15"/>
@@ -14519,7 +15018,7 @@
       <c r="N625" s="17"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="15"/>
@@ -14536,7 +15035,7 @@
       <c r="N626" s="17"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="15"/>
@@ -14553,7 +15052,7 @@
       <c r="N627" s="17"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="15"/>
@@ -14570,7 +15069,7 @@
       <c r="N628" s="17"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="15"/>
@@ -14587,7 +15086,7 @@
       <c r="N629" s="17"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="15"/>
@@ -14604,7 +15103,7 @@
       <c r="N630" s="17"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="15"/>
@@ -14621,7 +15120,7 @@
       <c r="N631" s="17"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="15"/>
@@ -14638,7 +15137,7 @@
       <c r="N632" s="17"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="15"/>
@@ -14655,7 +15154,7 @@
       <c r="N633" s="17"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="15"/>
@@ -14672,7 +15171,7 @@
       <c r="N634" s="17"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="15"/>
@@ -14689,7 +15188,7 @@
       <c r="N635" s="17"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="15"/>
@@ -14706,7 +15205,7 @@
       <c r="N636" s="17"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="15"/>
@@ -14723,7 +15222,7 @@
       <c r="N637" s="17"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="15"/>
@@ -14740,7 +15239,7 @@
       <c r="N638" s="17"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="15"/>
@@ -14757,7 +15256,7 @@
       <c r="N639" s="17"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="15"/>
@@ -14774,7 +15273,7 @@
       <c r="N640" s="17"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="15"/>
@@ -14791,7 +15290,7 @@
       <c r="N641" s="17"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="15"/>
@@ -14808,7 +15307,7 @@
       <c r="N642" s="17"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="15"/>
@@ -14825,7 +15324,7 @@
       <c r="N643" s="17"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="15"/>
@@ -14842,7 +15341,7 @@
       <c r="N644" s="17"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="15"/>
@@ -14859,7 +15358,7 @@
       <c r="N645" s="17"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="15"/>
@@ -14876,7 +15375,7 @@
       <c r="N646" s="17"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="15"/>
@@ -14893,7 +15392,7 @@
       <c r="N647" s="17"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="22" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="15"/>
@@ -14910,57 +15409,57 @@
       <c r="N648" s="17"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="22" r="697" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
+  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:N1"/>
@@ -14968,49 +15467,49 @@
     <mergeCell ref="L2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N4 N29:N1048576">
-    <cfRule type="beginsWith" dxfId="7" priority="5" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="7" operator="beginsWith" priority="5" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="6" operator="beginsWith" priority="6" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="7" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="5" operator="beginsWith" priority="7" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD697 P5:XFD28">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
+    <cfRule dxfId="4" priority="8" type="notContainsBlanks">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N28">
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="3" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="2" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="1" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:O6 A8:O12 B7:O7 A14:O20 B13:O13 A22:O28 B21:O21">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule dxfId="0" priority="4" type="notContainsBlanks">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C800" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C800" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="NGP" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink display="NGP" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/org/nexial/core/model/TestScenarioTest1.xlsx
+++ b/src/test/resources/org/nexial/core/model/TestScenarioTest1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10305"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10404"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1EAB6802-0D59-184A-B0B8-2B4D99878808}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F0DC09-E53F-E943-BE2C-565E4764A301}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
+    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
-    <sheet name="Test Scenario" r:id="rId2" sheetId="6"/>
+    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="Test Scenario" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -35,11 +35,12 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
     <definedName name="remote">'#system'!$M$2:$M$200</definedName>
     <definedName name="soap">'#system'!$O$2:$O$200</definedName>
     <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
     <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName localSheetId="1" name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="target" localSheetId="1">'#system'!$A$2:$A$23</definedName>
     <definedName name="target">'#system'!$A$2:$A$200</definedName>
     <definedName name="var">'#system'!$P$2:$P$200</definedName>
     <definedName name="web">'#system'!$S$2:$S$108</definedName>
@@ -47,7 +48,6 @@
     <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
     <definedName name="ws">'#system'!$V$2:$V$16</definedName>
     <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="466">
   <si>
     <t>true</t>
   </si>
@@ -322,12 +322,6 @@
     <t>this would never be called</t>
   </si>
   <si>
-    <t>SkipIf(var1="yes")</t>
-  </si>
-  <si>
-    <t>EndIf(var1 is ["yes", "no", "maybe"])</t>
-  </si>
-  <si>
     <t>aws.s3</t>
   </si>
   <si>
@@ -625,12 +619,6 @@
     <t>getRowCount(var)</t>
   </si>
   <si>
-    <t>getTableRows(var,beginRow,endRow)</t>
-  </si>
-  <si>
-    <t>getTableRowsAll(var)</t>
-  </si>
-  <si>
     <t>hideExplorerBar()</t>
   </si>
   <si>
@@ -821,9 +809,6 @@
   </si>
   <si>
     <t>send(to,subject,body)</t>
-  </si>
-  <si>
-    <t>assertBetween(num,lower,upper)</t>
   </si>
   <si>
     <t>average(var,array)</t>
@@ -1491,13 +1476,18 @@
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
   </si>
+  <si>
+    <t>SkipIf(var1 = "yes")</t>
+  </si>
+  <si>
+    <t>EndIf(var1 is ["yes"| "no"| "maybe"])</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1586,84 +1576,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="26">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1688,127 +1602,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor rgb="FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1910,403 +1705,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C8B4B4"/>
-      </left>
-      <right style="thin">
-        <color rgb="C8B4B4"/>
-      </right>
-      <top style="thin">
-        <color rgb="C8B4B4"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C8B4B4"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="DCDCDC"/>
-      </left>
-      <right style="thin">
-        <color rgb="DCDCDC"/>
-      </right>
-      <top style="thin">
-        <color rgb="DCDCDC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="DCDCDC"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="CDCDCD"/>
-      </left>
-      <right style="thin">
-        <color rgb="CDCDCD"/>
-      </right>
-      <top style="thin">
-        <color rgb="CDCDCD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="CDCDCD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="C3C3C3"/>
-      </left>
-      <right style="thin">
-        <color rgb="C3C3C3"/>
-      </right>
-      <top style="thin">
-        <color rgb="C3C3C3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="C3C3C3"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="9" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="2" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="6" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="4" fontId="11" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -2408,7 +1973,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2433,10 +1998,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2471,7 +2036,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2506,7 +2071,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2600,21 +2165,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2631,7 +2196,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2683,47 +2248,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.83203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="45.1640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="28.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="31.1640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.1640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="35.1640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="37.83203125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="29.83203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="13" max="18" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="45.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="37.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="29.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="18" width="10.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -2741,273 +2306,273 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
         <v>41</v>
       </c>
       <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>432</v>
+      </c>
+      <c r="S1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" t="s">
-        <v>437</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>97</v>
-      </c>
-      <c r="U1" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" t="s">
-        <v>99</v>
       </c>
       <c r="W1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P2" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q2" t="s">
         <v>275</v>
       </c>
-      <c r="P2" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>280</v>
-      </c>
       <c r="R2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="S2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="T2" t="s">
+        <v>389</v>
+      </c>
+      <c r="U2" t="s">
         <v>394</v>
       </c>
-      <c r="U2" t="s">
-        <v>399</v>
-      </c>
       <c r="V2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="W2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
         <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K3" t="s">
         <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P3" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q3" t="s">
         <v>276</v>
       </c>
-      <c r="P3" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>281</v>
-      </c>
       <c r="R3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="S3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="T3" t="s">
+        <v>390</v>
+      </c>
+      <c r="U3" t="s">
         <v>395</v>
       </c>
-      <c r="U3" t="s">
-        <v>400</v>
-      </c>
       <c r="V3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="W3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M4" t="s">
         <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="O4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q4" t="s">
         <v>277</v>
       </c>
-      <c r="P4" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>282</v>
-      </c>
       <c r="R4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="S4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="T4" t="s">
+        <v>391</v>
+      </c>
+      <c r="U4" t="s">
         <v>396</v>
       </c>
-      <c r="U4" t="s">
-        <v>401</v>
-      </c>
       <c r="V4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="W4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
         <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
         <v>55</v>
@@ -3016,48 +2581,48 @@
         <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O5" t="s">
+        <v>273</v>
+      </c>
+      <c r="P5" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q5" t="s">
         <v>278</v>
       </c>
-      <c r="P5" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>283</v>
-      </c>
       <c r="S5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="T5" t="s">
+        <v>392</v>
+      </c>
+      <c r="U5" t="s">
         <v>397</v>
       </c>
-      <c r="U5" t="s">
-        <v>402</v>
-      </c>
       <c r="V5" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="W5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -3069,51 +2634,51 @@
         <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O6" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q6" t="s">
         <v>279</v>
       </c>
-      <c r="P6" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>284</v>
-      </c>
       <c r="S6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="T6" t="s">
+        <v>393</v>
+      </c>
+      <c r="U6" t="s">
         <v>398</v>
       </c>
-      <c r="U6" t="s">
-        <v>403</v>
-      </c>
       <c r="V6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="W6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>
@@ -3122,42 +2687,42 @@
         <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="U7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="V7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
         <v>66</v>
@@ -3166,80 +2731,80 @@
         <v>64</v>
       </c>
       <c r="M8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="S8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="U8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="V8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="W8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
         <v>67</v>
       </c>
       <c r="M9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="N9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="P9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="W9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
@@ -3248,33 +2813,33 @@
         <v>68</v>
       </c>
       <c r="M10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="S10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="V10" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="W10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I11" t="s">
         <v>69</v>
@@ -3286,944 +2851,944 @@
         <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="S11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="V11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="W11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="E12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s">
+        <v>236</v>
+      </c>
+      <c r="M12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N12" t="s">
+        <v>265</v>
+      </c>
+      <c r="S12" t="s">
+        <v>293</v>
+      </c>
+      <c r="V12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>237</v>
+      </c>
+      <c r="M13" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" t="s">
+        <v>266</v>
+      </c>
+      <c r="S13" t="s">
+        <v>294</v>
+      </c>
+      <c r="V13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I14" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" t="s">
+        <v>254</v>
+      </c>
+      <c r="N14" t="s">
+        <v>267</v>
+      </c>
+      <c r="S14" t="s">
+        <v>295</v>
+      </c>
+      <c r="V14" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" t="s">
+        <v>239</v>
+      </c>
+      <c r="N15" t="s">
+        <v>268</v>
+      </c>
+      <c r="S15" t="s">
+        <v>296</v>
+      </c>
+      <c r="V15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" t="s">
         <v>240</v>
       </c>
-      <c r="M12" t="s">
-        <v>257</v>
-      </c>
-      <c r="N12" t="s">
-        <v>270</v>
-      </c>
-      <c r="S12" t="s">
-        <v>298</v>
-      </c>
-      <c r="V12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" t="s">
-        <v>241</v>
-      </c>
-      <c r="M13" t="s">
-        <v>258</v>
-      </c>
-      <c r="N13" t="s">
-        <v>271</v>
-      </c>
-      <c r="S13" t="s">
-        <v>299</v>
-      </c>
-      <c r="V13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="N16" t="s">
+        <v>269</v>
+      </c>
+      <c r="S16" t="s">
+        <v>297</v>
+      </c>
+      <c r="V16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" t="s">
-        <v>242</v>
-      </c>
-      <c r="M14" t="s">
-        <v>259</v>
-      </c>
-      <c r="N14" t="s">
-        <v>272</v>
-      </c>
-      <c r="S14" t="s">
-        <v>300</v>
-      </c>
-      <c r="V14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>150</v>
-      </c>
-      <c r="I15" t="s">
-        <v>243</v>
-      </c>
-      <c r="N15" t="s">
-        <v>273</v>
-      </c>
-      <c r="S15" t="s">
-        <v>301</v>
-      </c>
-      <c r="V15" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" t="s">
-        <v>244</v>
-      </c>
-      <c r="N16" t="s">
-        <v>274</v>
-      </c>
-      <c r="S16" t="s">
-        <v>302</v>
-      </c>
-      <c r="V16" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>152</v>
       </c>
       <c r="I17" t="s">
         <v>72</v>
       </c>
       <c r="S17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" t="s">
+        <v>241</v>
+      </c>
+      <c r="S18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" t="s">
+        <v>242</v>
+      </c>
+      <c r="S19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
         <v>120</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>153</v>
-      </c>
-      <c r="I18" t="s">
-        <v>245</v>
-      </c>
-      <c r="S18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" t="s">
-        <v>246</v>
-      </c>
-      <c r="S19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" t="s">
-        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>73</v>
       </c>
       <c r="S20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
         <v>74</v>
       </c>
       <c r="S21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="S23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>125</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>158</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="S26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="S27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="S28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
-        <v>159</v>
-      </c>
-      <c r="S24" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="S29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="S25" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="S30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" t="s">
-        <v>161</v>
-      </c>
-      <c r="S26" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>164</v>
+      </c>
+      <c r="S31" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="27">
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" t="s">
-        <v>162</v>
-      </c>
-      <c r="S27" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+      <c r="S32" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
-      <c r="S28" t="s">
+    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="S33" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="29">
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="S29" t="s">
+    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="S34" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="30">
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" t="s">
-        <v>165</v>
-      </c>
-      <c r="S30" t="s">
+    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
+      <c r="S35" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" t="s">
-        <v>166</v>
-      </c>
-      <c r="S31" t="s">
+    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+      <c r="S36" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="32">
-      <c r="E32" t="s">
-        <v>167</v>
-      </c>
-      <c r="S32" t="s">
+    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="S37" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="33">
-      <c r="E33" t="s">
-        <v>168</v>
-      </c>
-      <c r="S33" t="s">
+    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="S38" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="34">
-      <c r="E34" t="s">
-        <v>169</v>
-      </c>
-      <c r="S34" t="s">
+    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="S39" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35">
-      <c r="E35" t="s">
-        <v>170</v>
-      </c>
-      <c r="S35" t="s">
+    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+      <c r="S40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="36">
-      <c r="E36" t="s">
-        <v>171</v>
-      </c>
-      <c r="S36" t="s">
+    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="S41" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" t="s">
-        <v>172</v>
-      </c>
-      <c r="S37" t="s">
+    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>175</v>
+      </c>
+      <c r="S42" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38">
-      <c r="E38" t="s">
-        <v>173</v>
-      </c>
-      <c r="S38" t="s">
+    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>176</v>
+      </c>
+      <c r="S43" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" t="s">
-        <v>174</v>
-      </c>
-      <c r="S39" t="s">
+    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>177</v>
+      </c>
+      <c r="S44" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="40">
-      <c r="E40" t="s">
-        <v>175</v>
-      </c>
-      <c r="S40" t="s">
+    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="S45" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="41">
-      <c r="E41" t="s">
-        <v>176</v>
-      </c>
-      <c r="S41" t="s">
+    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>179</v>
+      </c>
+      <c r="S46" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="42">
-      <c r="E42" t="s">
-        <v>177</v>
-      </c>
-      <c r="S42" t="s">
+    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="S47" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="43">
-      <c r="E43" t="s">
-        <v>178</v>
-      </c>
-      <c r="S43" t="s">
+    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>181</v>
+      </c>
+      <c r="S48" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="44">
-      <c r="E44" t="s">
-        <v>179</v>
-      </c>
-      <c r="S44" t="s">
+    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>182</v>
+      </c>
+      <c r="S49" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45">
-      <c r="E45" t="s">
-        <v>180</v>
-      </c>
-      <c r="S45" t="s">
+    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>183</v>
+      </c>
+      <c r="S50" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="46">
-      <c r="E46" t="s">
-        <v>181</v>
-      </c>
-      <c r="S46" t="s">
+    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>184</v>
+      </c>
+      <c r="S51" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47">
-      <c r="E47" t="s">
-        <v>182</v>
-      </c>
-      <c r="S47" t="s">
+    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>185</v>
+      </c>
+      <c r="S52" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48">
-      <c r="E48" t="s">
-        <v>183</v>
-      </c>
-      <c r="S48" t="s">
+    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+      <c r="S53" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49">
-      <c r="E49" t="s">
-        <v>184</v>
-      </c>
-      <c r="S49" t="s">
+    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>187</v>
+      </c>
+      <c r="S54" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="50">
-      <c r="E50" t="s">
-        <v>185</v>
-      </c>
-      <c r="S50" t="s">
+    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
+      <c r="S55" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="51">
-      <c r="E51" t="s">
-        <v>186</v>
-      </c>
-      <c r="S51" t="s">
+    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>189</v>
+      </c>
+      <c r="S56" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>189</v>
-      </c>
-      <c r="S52" t="s">
+    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="S57" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>190</v>
-      </c>
-      <c r="S53" t="s">
+    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+      <c r="S58" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>191</v>
-      </c>
-      <c r="S54" t="s">
+    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+      <c r="S59" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>192</v>
-      </c>
-      <c r="S55" t="s">
+    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="S60" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>193</v>
-      </c>
-      <c r="S56" t="s">
+    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
+      <c r="S61" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
-      <c r="S57" t="s">
+    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>195</v>
+      </c>
+      <c r="S62" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>195</v>
-      </c>
-      <c r="S58" t="s">
+    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="S63" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>196</v>
-      </c>
-      <c r="S59" t="s">
+    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>197</v>
+      </c>
+      <c r="S64" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>197</v>
-      </c>
-      <c r="S60" t="s">
+    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>198</v>
+      </c>
+      <c r="S65" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>198</v>
-      </c>
-      <c r="S61" t="s">
+    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>199</v>
+      </c>
+      <c r="S66" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>199</v>
-      </c>
-      <c r="S62" t="s">
+    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>200</v>
+      </c>
+      <c r="S67" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>200</v>
-      </c>
-      <c r="S63" t="s">
+    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>201</v>
+      </c>
+      <c r="S68" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>201</v>
-      </c>
-      <c r="S64" t="s">
+    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>452</v>
+      </c>
+      <c r="S69" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
+    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
         <v>202</v>
       </c>
-      <c r="S65" t="s">
+      <c r="S70" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
+    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>453</v>
+      </c>
+      <c r="S71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
         <v>203</v>
       </c>
-      <c r="S66" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="E67" t="s">
+      <c r="S72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
         <v>204</v>
       </c>
-      <c r="S67" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="E68" t="s">
+      <c r="S73" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
         <v>205</v>
       </c>
-      <c r="S68" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>457</v>
-      </c>
-      <c r="S69" t="s">
+      <c r="S74" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
+    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
         <v>206</v>
       </c>
-      <c r="S70" t="s">
+      <c r="S75" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>458</v>
-      </c>
-      <c r="S71" t="s">
+    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>207</v>
+      </c>
+      <c r="S76" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>207</v>
-      </c>
-      <c r="S72" t="s">
+    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>208</v>
+      </c>
+      <c r="S77" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>208</v>
-      </c>
-      <c r="S73" t="s">
+    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>209</v>
+      </c>
+      <c r="S78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>209</v>
-      </c>
-      <c r="S74" t="s">
+    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>210</v>
+      </c>
+      <c r="S79" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>210</v>
-      </c>
-      <c r="S75" t="s">
+    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>211</v>
+      </c>
+      <c r="S80" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>211</v>
-      </c>
-      <c r="S76" t="s">
+    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>212</v>
+      </c>
+      <c r="S81" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>212</v>
-      </c>
-      <c r="S77" t="s">
+    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="S82" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>213</v>
-      </c>
-      <c r="S78" t="s">
+    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>214</v>
+      </c>
+      <c r="S83" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>214</v>
-      </c>
-      <c r="S79" t="s">
+    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>215</v>
+      </c>
+      <c r="S84" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>215</v>
-      </c>
-      <c r="S80" t="s">
+    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>216</v>
+      </c>
+      <c r="S85" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>216</v>
-      </c>
-      <c r="S81" t="s">
+    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>217</v>
+      </c>
+      <c r="S86" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>217</v>
-      </c>
-      <c r="S82" t="s">
+    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="S87" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>218</v>
-      </c>
-      <c r="S83" t="s">
+    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>219</v>
+      </c>
+      <c r="S88" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>219</v>
-      </c>
-      <c r="S84" t="s">
+    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>220</v>
+      </c>
+      <c r="S89" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>220</v>
-      </c>
-      <c r="S85" t="s">
+    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>221</v>
+      </c>
+      <c r="S90" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>221</v>
-      </c>
-      <c r="S86" t="s">
+    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>222</v>
+      </c>
+      <c r="S91" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>222</v>
-      </c>
-      <c r="S87" t="s">
+    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S92" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>223</v>
-      </c>
-      <c r="S88" t="s">
+    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S93" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>224</v>
-      </c>
-      <c r="S89" t="s">
+    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S94" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>225</v>
-      </c>
-      <c r="S90" t="s">
+    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S95" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>226</v>
-      </c>
-      <c r="S91" t="s">
+    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="S96" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="92">
-      <c r="S92" t="s">
+    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S97" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="93">
-      <c r="S93" t="s">
+    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S98" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="94">
-      <c r="S94" t="s">
+    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S99" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="95">
-      <c r="S95" t="s">
+    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S100" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="96">
-      <c r="S96" t="s">
+    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S101" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97">
-      <c r="S97" t="s">
+    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S102" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="98">
-      <c r="S98" t="s">
+    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S103" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="99">
-      <c r="S99" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="S100" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="S101" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="S102" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="S103" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="104">
+    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S105" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S106" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S107" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S108" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P697"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O697"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="10" width="23.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="56.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="16" width="10.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="11" width="44.6640625" collapsed="true"/>
-    <col min="5" max="9" customWidth="true" style="12" width="18.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="11" width="24.1640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="13" width="1.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="18" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="19" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="18" width="25.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="13" width="49.83203125" collapsed="true"/>
-    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="23.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="56" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.33203125" style="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.6640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="18.6640625" style="12" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.1640625" style="11" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.6640625" style="13" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="18" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="19" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="25.83203125" style="18" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.83203125" style="13" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="23" t="s">
         <v>12</v>
       </c>
@@ -4231,53 +3796,53 @@
         <v>28</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
       <c r="O1" s="3"/>
     </row>
-    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="3"/>
     </row>
-    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="14"/>
@@ -4294,15 +3859,15 @@
       <c r="N3" s="17"/>
       <c r="O3" s="3"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>3</v>
@@ -4339,12 +3904,12 @@
         <v>10</v>
       </c>
     </row>
-    <row customHeight="1" ht="22" r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>14</v>
@@ -4364,7 +3929,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="3" t="s">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
@@ -4372,10 +3937,10 @@
       <c r="N5" s="17"/>
       <c r="O5" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>42</v>
@@ -4401,12 +3966,12 @@
       <c r="N6" s="17"/>
       <c r="O6" s="3"/>
     </row>
-    <row customHeight="1" ht="30" r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>16</v>
@@ -4430,10 +3995,10 @@
       <c r="N7" s="17"/>
       <c r="O7" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="35" t="s">
-        <v>451</v>
+      <c r="B8" s="25" t="s">
+        <v>446</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>14</v>
@@ -4449,7 +4014,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="3" t="s">
-        <v>87</v>
+        <v>465</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="17"/>
@@ -4457,10 +4022,10 @@
       <c r="N8" s="17"/>
       <c r="O8" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35" t="s">
-        <v>452</v>
+      <c r="B9" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>16</v>
@@ -4486,7 +4051,7 @@
       <c r="N9" s="17"/>
       <c r="O9" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="15" t="s">
@@ -4507,7 +4072,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="15" t="s">
@@ -4528,7 +4093,7 @@
       <c r="N11" s="17"/>
       <c r="O11" s="3"/>
     </row>
-    <row customHeight="1" ht="34" r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="15" t="s">
@@ -4555,12 +4120,12 @@
       <c r="N12" s="17"/>
       <c r="O12" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>446</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>453</v>
+    <row r="13" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>448</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>36</v>
@@ -4586,10 +4151,10 @@
       <c r="N13" s="17"/>
       <c r="O13" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="35" t="s">
-        <v>454</v>
+      <c r="B14" s="25" t="s">
+        <v>449</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>14</v>
@@ -4613,10 +4178,10 @@
       <c r="N14" s="17"/>
       <c r="O14" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="35" t="s">
-        <v>455</v>
+      <c r="B15" s="25" t="s">
+        <v>450</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>14</v>
@@ -4640,7 +4205,7 @@
       <c r="N15" s="17"/>
       <c r="O15" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="15"/>
@@ -4657,7 +4222,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15" t="s">
@@ -4680,7 +4245,7 @@
       <c r="N17" s="17"/>
       <c r="O17" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="15"/>
@@ -4697,7 +4262,7 @@
       <c r="N18" s="17"/>
       <c r="O18" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="15"/>
@@ -4714,7 +4279,7 @@
       <c r="N19" s="17"/>
       <c r="O19" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="15"/>
@@ -4731,9 +4296,9 @@
       <c r="N20" s="17"/>
       <c r="O20" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>447</v>
+    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>442</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="15"/>
@@ -4750,7 +4315,7 @@
       <c r="N21" s="17"/>
       <c r="O21" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="15"/>
@@ -4767,7 +4332,7 @@
       <c r="N22" s="17"/>
       <c r="O22" s="3"/>
     </row>
-    <row customHeight="1" ht="35" r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="15"/>
@@ -4784,7 +4349,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="3"/>
     </row>
-    <row customHeight="1" ht="34" r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="15"/>
@@ -4801,7 +4366,7 @@
       <c r="N24" s="17"/>
       <c r="O24" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="15"/>
@@ -4818,7 +4383,7 @@
       <c r="N25" s="17"/>
       <c r="O25" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="15"/>
@@ -4835,7 +4400,7 @@
       <c r="N26" s="17"/>
       <c r="O26" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="15"/>
@@ -4852,7 +4417,7 @@
       <c r="N27" s="17"/>
       <c r="O27" s="3"/>
     </row>
-    <row customHeight="1" ht="34" r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
@@ -4869,7 +4434,7 @@
       <c r="N28" s="17"/>
       <c r="O28" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="15"/>
@@ -4886,7 +4451,7 @@
       <c r="N29" s="17"/>
       <c r="O29" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="15"/>
@@ -4903,7 +4468,7 @@
       <c r="N30" s="17"/>
       <c r="O30" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="15"/>
@@ -4920,7 +4485,7 @@
       <c r="N31" s="17"/>
       <c r="O31" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="15"/>
@@ -4937,7 +4502,7 @@
       <c r="N32" s="17"/>
       <c r="O32" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="15"/>
@@ -4954,7 +4519,7 @@
       <c r="N33" s="17"/>
       <c r="O33" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="15"/>
@@ -4971,7 +4536,7 @@
       <c r="N34" s="17"/>
       <c r="O34" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="15"/>
@@ -4988,7 +4553,7 @@
       <c r="N35" s="17"/>
       <c r="O35" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="15"/>
@@ -5005,7 +4570,7 @@
       <c r="N36" s="17"/>
       <c r="O36" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="15"/>
@@ -5022,7 +4587,7 @@
       <c r="N37" s="17"/>
       <c r="O37" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="15"/>
@@ -5039,7 +4604,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="15"/>
@@ -5056,7 +4621,7 @@
       <c r="N39" s="17"/>
       <c r="O39" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="15"/>
@@ -5073,7 +4638,7 @@
       <c r="N40" s="17"/>
       <c r="O40" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="15"/>
@@ -5090,7 +4655,7 @@
       <c r="N41" s="17"/>
       <c r="O41" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="15"/>
@@ -5107,7 +4672,7 @@
       <c r="N42" s="17"/>
       <c r="O42" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="15"/>
@@ -5124,7 +4689,7 @@
       <c r="N43" s="17"/>
       <c r="O43" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="15"/>
@@ -5141,7 +4706,7 @@
       <c r="N44" s="17"/>
       <c r="O44" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="15"/>
@@ -5158,7 +4723,7 @@
       <c r="N45" s="17"/>
       <c r="O45" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="15"/>
@@ -5175,7 +4740,7 @@
       <c r="N46" s="17"/>
       <c r="O46" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="15"/>
@@ -5192,7 +4757,7 @@
       <c r="N47" s="17"/>
       <c r="O47" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="15"/>
@@ -5209,7 +4774,7 @@
       <c r="N48" s="17"/>
       <c r="O48" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="15"/>
@@ -5226,7 +4791,7 @@
       <c r="N49" s="17"/>
       <c r="O49" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="15"/>
@@ -5243,7 +4808,7 @@
       <c r="N50" s="17"/>
       <c r="O50" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="15"/>
@@ -5260,7 +4825,7 @@
       <c r="N51" s="17"/>
       <c r="O51" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="15"/>
@@ -5277,7 +4842,7 @@
       <c r="N52" s="17"/>
       <c r="O52" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="15"/>
@@ -5294,7 +4859,7 @@
       <c r="N53" s="17"/>
       <c r="O53" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="15"/>
@@ -5311,7 +4876,7 @@
       <c r="N54" s="17"/>
       <c r="O54" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="15"/>
@@ -5328,7 +4893,7 @@
       <c r="N55" s="17"/>
       <c r="O55" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="15"/>
@@ -5345,7 +4910,7 @@
       <c r="N56" s="17"/>
       <c r="O56" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="15"/>
@@ -5362,7 +4927,7 @@
       <c r="N57" s="17"/>
       <c r="O57" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="15"/>
@@ -5379,7 +4944,7 @@
       <c r="N58" s="17"/>
       <c r="O58" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="15"/>
@@ -5396,7 +4961,7 @@
       <c r="N59" s="17"/>
       <c r="O59" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="15"/>
@@ -5413,7 +4978,7 @@
       <c r="N60" s="17"/>
       <c r="O60" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="15"/>
@@ -5430,7 +4995,7 @@
       <c r="N61" s="17"/>
       <c r="O61" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="15"/>
@@ -5447,7 +5012,7 @@
       <c r="N62" s="17"/>
       <c r="O62" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="15"/>
@@ -5464,7 +5029,7 @@
       <c r="N63" s="17"/>
       <c r="O63" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="15"/>
@@ -5481,7 +5046,7 @@
       <c r="N64" s="17"/>
       <c r="O64" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="15"/>
@@ -5498,7 +5063,7 @@
       <c r="N65" s="17"/>
       <c r="O65" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="15"/>
@@ -5515,7 +5080,7 @@
       <c r="N66" s="17"/>
       <c r="O66" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="15"/>
@@ -5532,7 +5097,7 @@
       <c r="N67" s="17"/>
       <c r="O67" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="15"/>
@@ -5549,7 +5114,7 @@
       <c r="N68" s="17"/>
       <c r="O68" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="15"/>
@@ -5566,7 +5131,7 @@
       <c r="N69" s="17"/>
       <c r="O69" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="15"/>
@@ -5583,7 +5148,7 @@
       <c r="N70" s="17"/>
       <c r="O70" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="15"/>
@@ -5600,7 +5165,7 @@
       <c r="N71" s="17"/>
       <c r="O71" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="15"/>
@@ -5617,7 +5182,7 @@
       <c r="N72" s="17"/>
       <c r="O72" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="15"/>
@@ -5634,7 +5199,7 @@
       <c r="N73" s="17"/>
       <c r="O73" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="15"/>
@@ -5651,7 +5216,7 @@
       <c r="N74" s="17"/>
       <c r="O74" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="15"/>
@@ -5668,7 +5233,7 @@
       <c r="N75" s="17"/>
       <c r="O75" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="15"/>
@@ -5685,7 +5250,7 @@
       <c r="N76" s="17"/>
       <c r="O76" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="15"/>
@@ -5702,7 +5267,7 @@
       <c r="N77" s="17"/>
       <c r="O77" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="15"/>
@@ -5719,7 +5284,7 @@
       <c r="N78" s="17"/>
       <c r="O78" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="15"/>
@@ -5736,7 +5301,7 @@
       <c r="N79" s="17"/>
       <c r="O79" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="15"/>
@@ -5753,7 +5318,7 @@
       <c r="N80" s="17"/>
       <c r="O80" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="15"/>
@@ -5770,7 +5335,7 @@
       <c r="N81" s="17"/>
       <c r="O81" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="15"/>
@@ -5787,7 +5352,7 @@
       <c r="N82" s="17"/>
       <c r="O82" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="15"/>
@@ -5804,7 +5369,7 @@
       <c r="N83" s="17"/>
       <c r="O83" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="15"/>
@@ -5821,7 +5386,7 @@
       <c r="N84" s="17"/>
       <c r="O84" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="15"/>
@@ -5838,7 +5403,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="15"/>
@@ -5855,7 +5420,7 @@
       <c r="N86" s="17"/>
       <c r="O86" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="15"/>
@@ -5872,7 +5437,7 @@
       <c r="N87" s="17"/>
       <c r="O87" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="15"/>
@@ -5889,7 +5454,7 @@
       <c r="N88" s="17"/>
       <c r="O88" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="15"/>
@@ -5906,7 +5471,7 @@
       <c r="N89" s="17"/>
       <c r="O89" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="15"/>
@@ -5923,7 +5488,7 @@
       <c r="N90" s="17"/>
       <c r="O90" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="15"/>
@@ -5940,7 +5505,7 @@
       <c r="N91" s="17"/>
       <c r="O91" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="15"/>
@@ -5957,7 +5522,7 @@
       <c r="N92" s="17"/>
       <c r="O92" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="15"/>
@@ -5974,7 +5539,7 @@
       <c r="N93" s="17"/>
       <c r="O93" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="15"/>
@@ -5991,7 +5556,7 @@
       <c r="N94" s="17"/>
       <c r="O94" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="15"/>
@@ -6008,7 +5573,7 @@
       <c r="N95" s="17"/>
       <c r="O95" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="15"/>
@@ -6025,7 +5590,7 @@
       <c r="N96" s="17"/>
       <c r="O96" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="15"/>
@@ -6042,7 +5607,7 @@
       <c r="N97" s="17"/>
       <c r="O97" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="15"/>
@@ -6059,7 +5624,7 @@
       <c r="N98" s="17"/>
       <c r="O98" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="15"/>
@@ -6076,7 +5641,7 @@
       <c r="N99" s="17"/>
       <c r="O99" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="15"/>
@@ -6093,7 +5658,7 @@
       <c r="N100" s="17"/>
       <c r="O100" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="15"/>
@@ -6110,7 +5675,7 @@
       <c r="N101" s="17"/>
       <c r="O101" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="15"/>
@@ -6127,7 +5692,7 @@
       <c r="N102" s="17"/>
       <c r="O102" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="15"/>
@@ -6144,7 +5709,7 @@
       <c r="N103" s="17"/>
       <c r="O103" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="15"/>
@@ -6161,7 +5726,7 @@
       <c r="N104" s="17"/>
       <c r="O104" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="15"/>
@@ -6178,7 +5743,7 @@
       <c r="N105" s="17"/>
       <c r="O105" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="15"/>
@@ -6195,7 +5760,7 @@
       <c r="N106" s="17"/>
       <c r="O106" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="15"/>
@@ -6212,7 +5777,7 @@
       <c r="N107" s="17"/>
       <c r="O107" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="15"/>
@@ -6229,7 +5794,7 @@
       <c r="N108" s="17"/>
       <c r="O108" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="15"/>
@@ -6246,7 +5811,7 @@
       <c r="N109" s="17"/>
       <c r="O109" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="15"/>
@@ -6263,7 +5828,7 @@
       <c r="N110" s="17"/>
       <c r="O110" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="15"/>
@@ -6280,7 +5845,7 @@
       <c r="N111" s="17"/>
       <c r="O111" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="15"/>
@@ -6297,7 +5862,7 @@
       <c r="N112" s="17"/>
       <c r="O112" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="15"/>
@@ -6314,7 +5879,7 @@
       <c r="N113" s="17"/>
       <c r="O113" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="15"/>
@@ -6331,7 +5896,7 @@
       <c r="N114" s="17"/>
       <c r="O114" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="15"/>
@@ -6348,7 +5913,7 @@
       <c r="N115" s="17"/>
       <c r="O115" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="15"/>
@@ -6365,7 +5930,7 @@
       <c r="N116" s="17"/>
       <c r="O116" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="15"/>
@@ -6382,7 +5947,7 @@
       <c r="N117" s="17"/>
       <c r="O117" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="15"/>
@@ -6399,7 +5964,7 @@
       <c r="N118" s="17"/>
       <c r="O118" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="15"/>
@@ -6416,7 +5981,7 @@
       <c r="N119" s="17"/>
       <c r="O119" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="15"/>
@@ -6433,7 +5998,7 @@
       <c r="N120" s="17"/>
       <c r="O120" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="15"/>
@@ -6450,7 +6015,7 @@
       <c r="N121" s="17"/>
       <c r="O121" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="15"/>
@@ -6467,7 +6032,7 @@
       <c r="N122" s="17"/>
       <c r="O122" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="15"/>
@@ -6484,7 +6049,7 @@
       <c r="N123" s="17"/>
       <c r="O123" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="15"/>
@@ -6501,7 +6066,7 @@
       <c r="N124" s="17"/>
       <c r="O124" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="15"/>
@@ -6518,7 +6083,7 @@
       <c r="N125" s="17"/>
       <c r="O125" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="15"/>
@@ -6535,7 +6100,7 @@
       <c r="N126" s="17"/>
       <c r="O126" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="15"/>
@@ -6552,7 +6117,7 @@
       <c r="N127" s="17"/>
       <c r="O127" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="15"/>
@@ -6569,7 +6134,7 @@
       <c r="N128" s="17"/>
       <c r="O128" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="15"/>
@@ -6586,7 +6151,7 @@
       <c r="N129" s="17"/>
       <c r="O129" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="15"/>
@@ -6603,7 +6168,7 @@
       <c r="N130" s="17"/>
       <c r="O130" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="15"/>
@@ -6620,7 +6185,7 @@
       <c r="N131" s="17"/>
       <c r="O131" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="15"/>
@@ -6637,7 +6202,7 @@
       <c r="N132" s="17"/>
       <c r="O132" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="15"/>
@@ -6654,7 +6219,7 @@
       <c r="N133" s="17"/>
       <c r="O133" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="15"/>
@@ -6671,7 +6236,7 @@
       <c r="N134" s="17"/>
       <c r="O134" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="15"/>
@@ -6688,7 +6253,7 @@
       <c r="N135" s="17"/>
       <c r="O135" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="15"/>
@@ -6705,7 +6270,7 @@
       <c r="N136" s="17"/>
       <c r="O136" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="15"/>
@@ -6722,7 +6287,7 @@
       <c r="N137" s="17"/>
       <c r="O137" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="15"/>
@@ -6739,7 +6304,7 @@
       <c r="N138" s="17"/>
       <c r="O138" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="15"/>
@@ -6756,7 +6321,7 @@
       <c r="N139" s="17"/>
       <c r="O139" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="15"/>
@@ -6773,7 +6338,7 @@
       <c r="N140" s="17"/>
       <c r="O140" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="15"/>
@@ -6790,7 +6355,7 @@
       <c r="N141" s="17"/>
       <c r="O141" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="15"/>
@@ -6807,7 +6372,7 @@
       <c r="N142" s="17"/>
       <c r="O142" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="15"/>
@@ -6824,7 +6389,7 @@
       <c r="N143" s="17"/>
       <c r="O143" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="15"/>
@@ -6841,7 +6406,7 @@
       <c r="N144" s="17"/>
       <c r="O144" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="15"/>
@@ -6858,7 +6423,7 @@
       <c r="N145" s="17"/>
       <c r="O145" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="15"/>
@@ -6875,7 +6440,7 @@
       <c r="N146" s="17"/>
       <c r="O146" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="15"/>
@@ -6892,7 +6457,7 @@
       <c r="N147" s="17"/>
       <c r="O147" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="15"/>
@@ -6909,7 +6474,7 @@
       <c r="N148" s="17"/>
       <c r="O148" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="15"/>
@@ -6926,7 +6491,7 @@
       <c r="N149" s="17"/>
       <c r="O149" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="15"/>
@@ -6943,7 +6508,7 @@
       <c r="N150" s="17"/>
       <c r="O150" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="15"/>
@@ -6960,7 +6525,7 @@
       <c r="N151" s="17"/>
       <c r="O151" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="15"/>
@@ -6977,7 +6542,7 @@
       <c r="N152" s="17"/>
       <c r="O152" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="15"/>
@@ -6994,7 +6559,7 @@
       <c r="N153" s="17"/>
       <c r="O153" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="15"/>
@@ -7011,7 +6576,7 @@
       <c r="N154" s="17"/>
       <c r="O154" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="15"/>
@@ -7028,7 +6593,7 @@
       <c r="N155" s="17"/>
       <c r="O155" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="15"/>
@@ -7045,7 +6610,7 @@
       <c r="N156" s="17"/>
       <c r="O156" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="15"/>
@@ -7062,7 +6627,7 @@
       <c r="N157" s="17"/>
       <c r="O157" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="15"/>
@@ -7079,7 +6644,7 @@
       <c r="N158" s="17"/>
       <c r="O158" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="15"/>
@@ -7096,7 +6661,7 @@
       <c r="N159" s="17"/>
       <c r="O159" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="15"/>
@@ -7113,7 +6678,7 @@
       <c r="N160" s="17"/>
       <c r="O160" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="15"/>
@@ -7130,7 +6695,7 @@
       <c r="N161" s="17"/>
       <c r="O161" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="15"/>
@@ -7147,7 +6712,7 @@
       <c r="N162" s="17"/>
       <c r="O162" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="15"/>
@@ -7164,7 +6729,7 @@
       <c r="N163" s="17"/>
       <c r="O163" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="15"/>
@@ -7181,7 +6746,7 @@
       <c r="N164" s="17"/>
       <c r="O164" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="15"/>
@@ -7198,7 +6763,7 @@
       <c r="N165" s="17"/>
       <c r="O165" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="15"/>
@@ -7215,7 +6780,7 @@
       <c r="N166" s="17"/>
       <c r="O166" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="15"/>
@@ -7232,7 +6797,7 @@
       <c r="N167" s="17"/>
       <c r="O167" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="15"/>
@@ -7249,7 +6814,7 @@
       <c r="N168" s="17"/>
       <c r="O168" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="15"/>
@@ -7266,7 +6831,7 @@
       <c r="N169" s="17"/>
       <c r="O169" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="15"/>
@@ -7283,7 +6848,7 @@
       <c r="N170" s="17"/>
       <c r="O170" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="15"/>
@@ -7300,7 +6865,7 @@
       <c r="N171" s="17"/>
       <c r="O171" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="15"/>
@@ -7317,7 +6882,7 @@
       <c r="N172" s="17"/>
       <c r="O172" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="15"/>
@@ -7334,7 +6899,7 @@
       <c r="N173" s="17"/>
       <c r="O173" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="15"/>
@@ -7351,7 +6916,7 @@
       <c r="N174" s="17"/>
       <c r="O174" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="15"/>
@@ -7368,7 +6933,7 @@
       <c r="N175" s="17"/>
       <c r="O175" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="15"/>
@@ -7385,7 +6950,7 @@
       <c r="N176" s="17"/>
       <c r="O176" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="15"/>
@@ -7402,7 +6967,7 @@
       <c r="N177" s="17"/>
       <c r="O177" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="15"/>
@@ -7419,7 +6984,7 @@
       <c r="N178" s="17"/>
       <c r="O178" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="15"/>
@@ -7436,7 +7001,7 @@
       <c r="N179" s="17"/>
       <c r="O179" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="15"/>
@@ -7453,7 +7018,7 @@
       <c r="N180" s="17"/>
       <c r="O180" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="15"/>
@@ -7470,7 +7035,7 @@
       <c r="N181" s="17"/>
       <c r="O181" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="15"/>
@@ -7487,7 +7052,7 @@
       <c r="N182" s="17"/>
       <c r="O182" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="15"/>
@@ -7504,7 +7069,7 @@
       <c r="N183" s="17"/>
       <c r="O183" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="15"/>
@@ -7521,7 +7086,7 @@
       <c r="N184" s="17"/>
       <c r="O184" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="15"/>
@@ -7538,7 +7103,7 @@
       <c r="N185" s="17"/>
       <c r="O185" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="15"/>
@@ -7555,7 +7120,7 @@
       <c r="N186" s="17"/>
       <c r="O186" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="15"/>
@@ -7572,7 +7137,7 @@
       <c r="N187" s="17"/>
       <c r="O187" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="15"/>
@@ -7589,7 +7154,7 @@
       <c r="N188" s="17"/>
       <c r="O188" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="15"/>
@@ -7606,7 +7171,7 @@
       <c r="N189" s="17"/>
       <c r="O189" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="15"/>
@@ -7623,7 +7188,7 @@
       <c r="N190" s="17"/>
       <c r="O190" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="15"/>
@@ -7640,7 +7205,7 @@
       <c r="N191" s="17"/>
       <c r="O191" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="15"/>
@@ -7657,7 +7222,7 @@
       <c r="N192" s="17"/>
       <c r="O192" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="15"/>
@@ -7674,7 +7239,7 @@
       <c r="N193" s="17"/>
       <c r="O193" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="15"/>
@@ -7691,7 +7256,7 @@
       <c r="N194" s="17"/>
       <c r="O194" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="15"/>
@@ -7708,7 +7273,7 @@
       <c r="N195" s="17"/>
       <c r="O195" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="15"/>
@@ -7725,7 +7290,7 @@
       <c r="N196" s="17"/>
       <c r="O196" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="15"/>
@@ -7742,7 +7307,7 @@
       <c r="N197" s="17"/>
       <c r="O197" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="15"/>
@@ -7759,7 +7324,7 @@
       <c r="N198" s="17"/>
       <c r="O198" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="15"/>
@@ -7776,7 +7341,7 @@
       <c r="N199" s="17"/>
       <c r="O199" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="15"/>
@@ -7793,7 +7358,7 @@
       <c r="N200" s="17"/>
       <c r="O200" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="15"/>
@@ -7810,7 +7375,7 @@
       <c r="N201" s="17"/>
       <c r="O201" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="15"/>
@@ -7827,7 +7392,7 @@
       <c r="N202" s="17"/>
       <c r="O202" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="15"/>
@@ -7844,7 +7409,7 @@
       <c r="N203" s="17"/>
       <c r="O203" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="15"/>
@@ -7861,7 +7426,7 @@
       <c r="N204" s="17"/>
       <c r="O204" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="15"/>
@@ -7878,7 +7443,7 @@
       <c r="N205" s="17"/>
       <c r="O205" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="15"/>
@@ -7895,7 +7460,7 @@
       <c r="N206" s="17"/>
       <c r="O206" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="15"/>
@@ -7912,7 +7477,7 @@
       <c r="N207" s="17"/>
       <c r="O207" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="15"/>
@@ -7929,7 +7494,7 @@
       <c r="N208" s="17"/>
       <c r="O208" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="15"/>
@@ -7946,7 +7511,7 @@
       <c r="N209" s="17"/>
       <c r="O209" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="15"/>
@@ -7963,7 +7528,7 @@
       <c r="N210" s="17"/>
       <c r="O210" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="15"/>
@@ -7980,7 +7545,7 @@
       <c r="N211" s="17"/>
       <c r="O211" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="15"/>
@@ -7997,7 +7562,7 @@
       <c r="N212" s="17"/>
       <c r="O212" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="15"/>
@@ -8014,7 +7579,7 @@
       <c r="N213" s="17"/>
       <c r="O213" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="15"/>
@@ -8031,7 +7596,7 @@
       <c r="N214" s="17"/>
       <c r="O214" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="15"/>
@@ -8048,7 +7613,7 @@
       <c r="N215" s="17"/>
       <c r="O215" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="15"/>
@@ -8065,7 +7630,7 @@
       <c r="N216" s="17"/>
       <c r="O216" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="15"/>
@@ -8082,7 +7647,7 @@
       <c r="N217" s="17"/>
       <c r="O217" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="15"/>
@@ -8099,7 +7664,7 @@
       <c r="N218" s="17"/>
       <c r="O218" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="15"/>
@@ -8116,7 +7681,7 @@
       <c r="N219" s="17"/>
       <c r="O219" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="15"/>
@@ -8133,7 +7698,7 @@
       <c r="N220" s="17"/>
       <c r="O220" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="15"/>
@@ -8150,7 +7715,7 @@
       <c r="N221" s="17"/>
       <c r="O221" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="15"/>
@@ -8167,7 +7732,7 @@
       <c r="N222" s="17"/>
       <c r="O222" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="15"/>
@@ -8184,7 +7749,7 @@
       <c r="N223" s="17"/>
       <c r="O223" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="15"/>
@@ -8201,7 +7766,7 @@
       <c r="N224" s="17"/>
       <c r="O224" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="15"/>
@@ -8218,7 +7783,7 @@
       <c r="N225" s="17"/>
       <c r="O225" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="15"/>
@@ -8235,7 +7800,7 @@
       <c r="N226" s="17"/>
       <c r="O226" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="15"/>
@@ -8252,7 +7817,7 @@
       <c r="N227" s="17"/>
       <c r="O227" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="15"/>
@@ -8269,7 +7834,7 @@
       <c r="N228" s="17"/>
       <c r="O228" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="15"/>
@@ -8286,7 +7851,7 @@
       <c r="N229" s="17"/>
       <c r="O229" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="15"/>
@@ -8303,7 +7868,7 @@
       <c r="N230" s="17"/>
       <c r="O230" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="15"/>
@@ -8320,7 +7885,7 @@
       <c r="N231" s="17"/>
       <c r="O231" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="15"/>
@@ -8337,7 +7902,7 @@
       <c r="N232" s="17"/>
       <c r="O232" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="15"/>
@@ -8354,7 +7919,7 @@
       <c r="N233" s="17"/>
       <c r="O233" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="15"/>
@@ -8371,7 +7936,7 @@
       <c r="N234" s="17"/>
       <c r="O234" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="15"/>
@@ -8388,7 +7953,7 @@
       <c r="N235" s="17"/>
       <c r="O235" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="15"/>
@@ -8405,7 +7970,7 @@
       <c r="N236" s="17"/>
       <c r="O236" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="15"/>
@@ -8422,7 +7987,7 @@
       <c r="N237" s="17"/>
       <c r="O237" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="15"/>
@@ -8439,7 +8004,7 @@
       <c r="N238" s="17"/>
       <c r="O238" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="15"/>
@@ -8456,7 +8021,7 @@
       <c r="N239" s="17"/>
       <c r="O239" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="15"/>
@@ -8473,7 +8038,7 @@
       <c r="N240" s="17"/>
       <c r="O240" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="15"/>
@@ -8490,7 +8055,7 @@
       <c r="N241" s="17"/>
       <c r="O241" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="15"/>
@@ -8507,7 +8072,7 @@
       <c r="N242" s="17"/>
       <c r="O242" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="15"/>
@@ -8524,7 +8089,7 @@
       <c r="N243" s="17"/>
       <c r="O243" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="15"/>
@@ -8541,7 +8106,7 @@
       <c r="N244" s="17"/>
       <c r="O244" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="15"/>
@@ -8558,7 +8123,7 @@
       <c r="N245" s="17"/>
       <c r="O245" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="15"/>
@@ -8575,7 +8140,7 @@
       <c r="N246" s="17"/>
       <c r="O246" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="15"/>
@@ -8592,7 +8157,7 @@
       <c r="N247" s="17"/>
       <c r="O247" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="15"/>
@@ -8609,7 +8174,7 @@
       <c r="N248" s="17"/>
       <c r="O248" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="15"/>
@@ -8626,7 +8191,7 @@
       <c r="N249" s="17"/>
       <c r="O249" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="15"/>
@@ -8643,7 +8208,7 @@
       <c r="N250" s="17"/>
       <c r="O250" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="15"/>
@@ -8660,7 +8225,7 @@
       <c r="N251" s="17"/>
       <c r="O251" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="15"/>
@@ -8677,7 +8242,7 @@
       <c r="N252" s="17"/>
       <c r="O252" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="15"/>
@@ -8694,7 +8259,7 @@
       <c r="N253" s="17"/>
       <c r="O253" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="15"/>
@@ -8711,7 +8276,7 @@
       <c r="N254" s="17"/>
       <c r="O254" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="15"/>
@@ -8728,7 +8293,7 @@
       <c r="N255" s="17"/>
       <c r="O255" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="15"/>
@@ -8745,7 +8310,7 @@
       <c r="N256" s="17"/>
       <c r="O256" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="15"/>
@@ -8762,7 +8327,7 @@
       <c r="N257" s="17"/>
       <c r="O257" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="15"/>
@@ -8779,7 +8344,7 @@
       <c r="N258" s="17"/>
       <c r="O258" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="15"/>
@@ -8796,7 +8361,7 @@
       <c r="N259" s="17"/>
       <c r="O259" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="15"/>
@@ -8813,7 +8378,7 @@
       <c r="N260" s="17"/>
       <c r="O260" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="15"/>
@@ -8830,7 +8395,7 @@
       <c r="N261" s="17"/>
       <c r="O261" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="15"/>
@@ -8847,7 +8412,7 @@
       <c r="N262" s="17"/>
       <c r="O262" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="15"/>
@@ -8864,7 +8429,7 @@
       <c r="N263" s="17"/>
       <c r="O263" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="15"/>
@@ -8881,7 +8446,7 @@
       <c r="N264" s="17"/>
       <c r="O264" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="15"/>
@@ -8898,7 +8463,7 @@
       <c r="N265" s="17"/>
       <c r="O265" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="15"/>
@@ -8915,7 +8480,7 @@
       <c r="N266" s="17"/>
       <c r="O266" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="15"/>
@@ -8932,7 +8497,7 @@
       <c r="N267" s="17"/>
       <c r="O267" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="15"/>
@@ -8949,7 +8514,7 @@
       <c r="N268" s="17"/>
       <c r="O268" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="15"/>
@@ -8966,7 +8531,7 @@
       <c r="N269" s="17"/>
       <c r="O269" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="15"/>
@@ -8983,7 +8548,7 @@
       <c r="N270" s="17"/>
       <c r="O270" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="15"/>
@@ -9000,7 +8565,7 @@
       <c r="N271" s="17"/>
       <c r="O271" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="15"/>
@@ -9017,7 +8582,7 @@
       <c r="N272" s="17"/>
       <c r="O272" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="15"/>
@@ -9034,7 +8599,7 @@
       <c r="N273" s="17"/>
       <c r="O273" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="15"/>
@@ -9051,7 +8616,7 @@
       <c r="N274" s="17"/>
       <c r="O274" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="15"/>
@@ -9068,7 +8633,7 @@
       <c r="N275" s="17"/>
       <c r="O275" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="15"/>
@@ -9085,7 +8650,7 @@
       <c r="N276" s="17"/>
       <c r="O276" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="15"/>
@@ -9102,7 +8667,7 @@
       <c r="N277" s="17"/>
       <c r="O277" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="15"/>
@@ -9119,7 +8684,7 @@
       <c r="N278" s="17"/>
       <c r="O278" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="15"/>
@@ -9136,7 +8701,7 @@
       <c r="N279" s="17"/>
       <c r="O279" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="15"/>
@@ -9153,7 +8718,7 @@
       <c r="N280" s="17"/>
       <c r="O280" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="15"/>
@@ -9170,7 +8735,7 @@
       <c r="N281" s="17"/>
       <c r="O281" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="15"/>
@@ -9187,7 +8752,7 @@
       <c r="N282" s="17"/>
       <c r="O282" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="15"/>
@@ -9204,7 +8769,7 @@
       <c r="N283" s="17"/>
       <c r="O283" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="15"/>
@@ -9221,7 +8786,7 @@
       <c r="N284" s="17"/>
       <c r="O284" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="15"/>
@@ -9238,7 +8803,7 @@
       <c r="N285" s="17"/>
       <c r="O285" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="15"/>
@@ -9255,7 +8820,7 @@
       <c r="N286" s="17"/>
       <c r="O286" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="15"/>
@@ -9272,7 +8837,7 @@
       <c r="N287" s="17"/>
       <c r="O287" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="15"/>
@@ -9289,7 +8854,7 @@
       <c r="N288" s="17"/>
       <c r="O288" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="15"/>
@@ -9306,7 +8871,7 @@
       <c r="N289" s="17"/>
       <c r="O289" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="15"/>
@@ -9323,7 +8888,7 @@
       <c r="N290" s="17"/>
       <c r="O290" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="15"/>
@@ -9340,7 +8905,7 @@
       <c r="N291" s="17"/>
       <c r="O291" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="15"/>
@@ -9357,7 +8922,7 @@
       <c r="N292" s="17"/>
       <c r="O292" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="15"/>
@@ -9374,7 +8939,7 @@
       <c r="N293" s="17"/>
       <c r="O293" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="15"/>
@@ -9391,7 +8956,7 @@
       <c r="N294" s="17"/>
       <c r="O294" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="15"/>
@@ -9408,7 +8973,7 @@
       <c r="N295" s="17"/>
       <c r="O295" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="15"/>
@@ -9425,7 +8990,7 @@
       <c r="N296" s="17"/>
       <c r="O296" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="15"/>
@@ -9442,7 +9007,7 @@
       <c r="N297" s="17"/>
       <c r="O297" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="15"/>
@@ -9459,7 +9024,7 @@
       <c r="N298" s="17"/>
       <c r="O298" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="15"/>
@@ -9476,7 +9041,7 @@
       <c r="N299" s="17"/>
       <c r="O299" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="15"/>
@@ -9493,7 +9058,7 @@
       <c r="N300" s="17"/>
       <c r="O300" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="15"/>
@@ -9510,7 +9075,7 @@
       <c r="N301" s="17"/>
       <c r="O301" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="15"/>
@@ -9527,7 +9092,7 @@
       <c r="N302" s="17"/>
       <c r="O302" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="15"/>
@@ -9544,7 +9109,7 @@
       <c r="N303" s="17"/>
       <c r="O303" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="15"/>
@@ -9561,7 +9126,7 @@
       <c r="N304" s="17"/>
       <c r="O304" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="15"/>
@@ -9578,7 +9143,7 @@
       <c r="N305" s="17"/>
       <c r="O305" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="15"/>
@@ -9595,7 +9160,7 @@
       <c r="N306" s="17"/>
       <c r="O306" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="15"/>
@@ -9612,7 +9177,7 @@
       <c r="N307" s="17"/>
       <c r="O307" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="15"/>
@@ -9629,7 +9194,7 @@
       <c r="N308" s="17"/>
       <c r="O308" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="15"/>
@@ -9646,7 +9211,7 @@
       <c r="N309" s="17"/>
       <c r="O309" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="15"/>
@@ -9663,7 +9228,7 @@
       <c r="N310" s="17"/>
       <c r="O310" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="15"/>
@@ -9680,7 +9245,7 @@
       <c r="N311" s="17"/>
       <c r="O311" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="15"/>
@@ -9697,7 +9262,7 @@
       <c r="N312" s="17"/>
       <c r="O312" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="15"/>
@@ -9714,7 +9279,7 @@
       <c r="N313" s="17"/>
       <c r="O313" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="15"/>
@@ -9731,7 +9296,7 @@
       <c r="N314" s="17"/>
       <c r="O314" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="15"/>
@@ -9748,7 +9313,7 @@
       <c r="N315" s="17"/>
       <c r="O315" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="15"/>
@@ -9765,7 +9330,7 @@
       <c r="N316" s="17"/>
       <c r="O316" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="15"/>
@@ -9782,7 +9347,7 @@
       <c r="N317" s="17"/>
       <c r="O317" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="15"/>
@@ -9799,7 +9364,7 @@
       <c r="N318" s="17"/>
       <c r="O318" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="15"/>
@@ -9816,7 +9381,7 @@
       <c r="N319" s="17"/>
       <c r="O319" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="15"/>
@@ -9833,7 +9398,7 @@
       <c r="N320" s="17"/>
       <c r="O320" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="15"/>
@@ -9850,7 +9415,7 @@
       <c r="N321" s="17"/>
       <c r="O321" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="15"/>
@@ -9867,7 +9432,7 @@
       <c r="N322" s="17"/>
       <c r="O322" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="15"/>
@@ -9884,7 +9449,7 @@
       <c r="N323" s="17"/>
       <c r="O323" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="15"/>
@@ -9901,7 +9466,7 @@
       <c r="N324" s="17"/>
       <c r="O324" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="15"/>
@@ -9918,7 +9483,7 @@
       <c r="N325" s="17"/>
       <c r="O325" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="15"/>
@@ -9935,7 +9500,7 @@
       <c r="N326" s="17"/>
       <c r="O326" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="15"/>
@@ -9952,7 +9517,7 @@
       <c r="N327" s="17"/>
       <c r="O327" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="15"/>
@@ -9969,7 +9534,7 @@
       <c r="N328" s="17"/>
       <c r="O328" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="15"/>
@@ -9986,7 +9551,7 @@
       <c r="N329" s="17"/>
       <c r="O329" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="15"/>
@@ -10003,7 +9568,7 @@
       <c r="N330" s="17"/>
       <c r="O330" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="15"/>
@@ -10020,7 +9585,7 @@
       <c r="N331" s="17"/>
       <c r="O331" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="15"/>
@@ -10037,7 +9602,7 @@
       <c r="N332" s="17"/>
       <c r="O332" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="15"/>
@@ -10054,7 +9619,7 @@
       <c r="N333" s="17"/>
       <c r="O333" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="15"/>
@@ -10071,7 +9636,7 @@
       <c r="N334" s="17"/>
       <c r="O334" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="15"/>
@@ -10088,7 +9653,7 @@
       <c r="N335" s="17"/>
       <c r="O335" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="15"/>
@@ -10105,7 +9670,7 @@
       <c r="N336" s="17"/>
       <c r="O336" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="15"/>
@@ -10122,7 +9687,7 @@
       <c r="N337" s="17"/>
       <c r="O337" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="15"/>
@@ -10139,7 +9704,7 @@
       <c r="N338" s="17"/>
       <c r="O338" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="15"/>
@@ -10156,7 +9721,7 @@
       <c r="N339" s="17"/>
       <c r="O339" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="15"/>
@@ -10173,7 +9738,7 @@
       <c r="N340" s="17"/>
       <c r="O340" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="15"/>
@@ -10190,7 +9755,7 @@
       <c r="N341" s="17"/>
       <c r="O341" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="15"/>
@@ -10207,7 +9772,7 @@
       <c r="N342" s="17"/>
       <c r="O342" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="15"/>
@@ -10224,7 +9789,7 @@
       <c r="N343" s="17"/>
       <c r="O343" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="15"/>
@@ -10241,7 +9806,7 @@
       <c r="N344" s="17"/>
       <c r="O344" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="15"/>
@@ -10258,7 +9823,7 @@
       <c r="N345" s="17"/>
       <c r="O345" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="15"/>
@@ -10275,7 +9840,7 @@
       <c r="N346" s="17"/>
       <c r="O346" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="15"/>
@@ -10292,7 +9857,7 @@
       <c r="N347" s="17"/>
       <c r="O347" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="15"/>
@@ -10309,7 +9874,7 @@
       <c r="N348" s="17"/>
       <c r="O348" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="15"/>
@@ -10326,7 +9891,7 @@
       <c r="N349" s="17"/>
       <c r="O349" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="15"/>
@@ -10343,7 +9908,7 @@
       <c r="N350" s="17"/>
       <c r="O350" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="15"/>
@@ -10360,7 +9925,7 @@
       <c r="N351" s="17"/>
       <c r="O351" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="15"/>
@@ -10377,7 +9942,7 @@
       <c r="N352" s="17"/>
       <c r="O352" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="15"/>
@@ -10394,7 +9959,7 @@
       <c r="N353" s="17"/>
       <c r="O353" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="15"/>
@@ -10411,7 +9976,7 @@
       <c r="N354" s="17"/>
       <c r="O354" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="15"/>
@@ -10428,7 +9993,7 @@
       <c r="N355" s="17"/>
       <c r="O355" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="15"/>
@@ -10445,7 +10010,7 @@
       <c r="N356" s="17"/>
       <c r="O356" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="15"/>
@@ -10462,7 +10027,7 @@
       <c r="N357" s="17"/>
       <c r="O357" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="15"/>
@@ -10479,7 +10044,7 @@
       <c r="N358" s="17"/>
       <c r="O358" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="15"/>
@@ -10496,7 +10061,7 @@
       <c r="N359" s="17"/>
       <c r="O359" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="15"/>
@@ -10513,7 +10078,7 @@
       <c r="N360" s="17"/>
       <c r="O360" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="15"/>
@@ -10530,7 +10095,7 @@
       <c r="N361" s="17"/>
       <c r="O361" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="15"/>
@@ -10547,7 +10112,7 @@
       <c r="N362" s="17"/>
       <c r="O362" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="15"/>
@@ -10564,7 +10129,7 @@
       <c r="N363" s="17"/>
       <c r="O363" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="15"/>
@@ -10581,7 +10146,7 @@
       <c r="N364" s="17"/>
       <c r="O364" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="15"/>
@@ -10598,7 +10163,7 @@
       <c r="N365" s="17"/>
       <c r="O365" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="15"/>
@@ -10615,7 +10180,7 @@
       <c r="N366" s="17"/>
       <c r="O366" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="15"/>
@@ -10632,7 +10197,7 @@
       <c r="N367" s="17"/>
       <c r="O367" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="15"/>
@@ -10649,7 +10214,7 @@
       <c r="N368" s="17"/>
       <c r="O368" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="15"/>
@@ -10666,7 +10231,7 @@
       <c r="N369" s="17"/>
       <c r="O369" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="15"/>
@@ -10683,7 +10248,7 @@
       <c r="N370" s="17"/>
       <c r="O370" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="15"/>
@@ -10700,7 +10265,7 @@
       <c r="N371" s="17"/>
       <c r="O371" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="15"/>
@@ -10717,7 +10282,7 @@
       <c r="N372" s="17"/>
       <c r="O372" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="15"/>
@@ -10734,7 +10299,7 @@
       <c r="N373" s="17"/>
       <c r="O373" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="15"/>
@@ -10751,7 +10316,7 @@
       <c r="N374" s="17"/>
       <c r="O374" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="15"/>
@@ -10768,7 +10333,7 @@
       <c r="N375" s="17"/>
       <c r="O375" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="15"/>
@@ -10785,7 +10350,7 @@
       <c r="N376" s="17"/>
       <c r="O376" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="15"/>
@@ -10802,7 +10367,7 @@
       <c r="N377" s="17"/>
       <c r="O377" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="15"/>
@@ -10819,7 +10384,7 @@
       <c r="N378" s="17"/>
       <c r="O378" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="15"/>
@@ -10836,7 +10401,7 @@
       <c r="N379" s="17"/>
       <c r="O379" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="15"/>
@@ -10853,7 +10418,7 @@
       <c r="N380" s="17"/>
       <c r="O380" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="15"/>
@@ -10870,7 +10435,7 @@
       <c r="N381" s="17"/>
       <c r="O381" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="15"/>
@@ -10887,7 +10452,7 @@
       <c r="N382" s="17"/>
       <c r="O382" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="15"/>
@@ -10904,7 +10469,7 @@
       <c r="N383" s="17"/>
       <c r="O383" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="15"/>
@@ -10921,7 +10486,7 @@
       <c r="N384" s="17"/>
       <c r="O384" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="15"/>
@@ -10938,7 +10503,7 @@
       <c r="N385" s="17"/>
       <c r="O385" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="15"/>
@@ -10955,7 +10520,7 @@
       <c r="N386" s="17"/>
       <c r="O386" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="15"/>
@@ -10972,7 +10537,7 @@
       <c r="N387" s="17"/>
       <c r="O387" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="15"/>
@@ -10989,7 +10554,7 @@
       <c r="N388" s="17"/>
       <c r="O388" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="15"/>
@@ -11006,7 +10571,7 @@
       <c r="N389" s="17"/>
       <c r="O389" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="15"/>
@@ -11023,7 +10588,7 @@
       <c r="N390" s="17"/>
       <c r="O390" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="15"/>
@@ -11040,7 +10605,7 @@
       <c r="N391" s="17"/>
       <c r="O391" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="15"/>
@@ -11057,7 +10622,7 @@
       <c r="N392" s="17"/>
       <c r="O392" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="15"/>
@@ -11074,7 +10639,7 @@
       <c r="N393" s="17"/>
       <c r="O393" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="15"/>
@@ -11091,7 +10656,7 @@
       <c r="N394" s="17"/>
       <c r="O394" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="15"/>
@@ -11108,7 +10673,7 @@
       <c r="N395" s="17"/>
       <c r="O395" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="15"/>
@@ -11125,7 +10690,7 @@
       <c r="N396" s="17"/>
       <c r="O396" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="15"/>
@@ -11142,7 +10707,7 @@
       <c r="N397" s="17"/>
       <c r="O397" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="15"/>
@@ -11159,7 +10724,7 @@
       <c r="N398" s="17"/>
       <c r="O398" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="15"/>
@@ -11176,7 +10741,7 @@
       <c r="N399" s="17"/>
       <c r="O399" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="15"/>
@@ -11193,7 +10758,7 @@
       <c r="N400" s="17"/>
       <c r="O400" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="15"/>
@@ -11210,7 +10775,7 @@
       <c r="N401" s="17"/>
       <c r="O401" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="15"/>
@@ -11227,7 +10792,7 @@
       <c r="N402" s="17"/>
       <c r="O402" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="15"/>
@@ -11244,7 +10809,7 @@
       <c r="N403" s="17"/>
       <c r="O403" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="15"/>
@@ -11261,7 +10826,7 @@
       <c r="N404" s="17"/>
       <c r="O404" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="15"/>
@@ -11278,7 +10843,7 @@
       <c r="N405" s="17"/>
       <c r="O405" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="15"/>
@@ -11295,7 +10860,7 @@
       <c r="N406" s="17"/>
       <c r="O406" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="15"/>
@@ -11312,7 +10877,7 @@
       <c r="N407" s="17"/>
       <c r="O407" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="15"/>
@@ -11329,7 +10894,7 @@
       <c r="N408" s="17"/>
       <c r="O408" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="15"/>
@@ -11346,7 +10911,7 @@
       <c r="N409" s="17"/>
       <c r="O409" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="15"/>
@@ -11363,7 +10928,7 @@
       <c r="N410" s="17"/>
       <c r="O410" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="15"/>
@@ -11380,7 +10945,7 @@
       <c r="N411" s="17"/>
       <c r="O411" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="15"/>
@@ -11397,7 +10962,7 @@
       <c r="N412" s="17"/>
       <c r="O412" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="15"/>
@@ -11414,7 +10979,7 @@
       <c r="N413" s="17"/>
       <c r="O413" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="15"/>
@@ -11431,7 +10996,7 @@
       <c r="N414" s="17"/>
       <c r="O414" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="15"/>
@@ -11448,7 +11013,7 @@
       <c r="N415" s="17"/>
       <c r="O415" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="15"/>
@@ -11465,7 +11030,7 @@
       <c r="N416" s="17"/>
       <c r="O416" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="15"/>
@@ -11482,7 +11047,7 @@
       <c r="N417" s="17"/>
       <c r="O417" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="15"/>
@@ -11499,7 +11064,7 @@
       <c r="N418" s="17"/>
       <c r="O418" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="15"/>
@@ -11516,7 +11081,7 @@
       <c r="N419" s="17"/>
       <c r="O419" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="15"/>
@@ -11533,7 +11098,7 @@
       <c r="N420" s="17"/>
       <c r="O420" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="15"/>
@@ -11550,7 +11115,7 @@
       <c r="N421" s="17"/>
       <c r="O421" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="15"/>
@@ -11567,7 +11132,7 @@
       <c r="N422" s="17"/>
       <c r="O422" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="15"/>
@@ -11584,7 +11149,7 @@
       <c r="N423" s="17"/>
       <c r="O423" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="15"/>
@@ -11601,7 +11166,7 @@
       <c r="N424" s="17"/>
       <c r="O424" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="15"/>
@@ -11618,7 +11183,7 @@
       <c r="N425" s="17"/>
       <c r="O425" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="15"/>
@@ -11635,7 +11200,7 @@
       <c r="N426" s="17"/>
       <c r="O426" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="15"/>
@@ -11652,7 +11217,7 @@
       <c r="N427" s="17"/>
       <c r="O427" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="15"/>
@@ -11669,7 +11234,7 @@
       <c r="N428" s="17"/>
       <c r="O428" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="15"/>
@@ -11686,7 +11251,7 @@
       <c r="N429" s="17"/>
       <c r="O429" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="15"/>
@@ -11703,7 +11268,7 @@
       <c r="N430" s="17"/>
       <c r="O430" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="15"/>
@@ -11720,7 +11285,7 @@
       <c r="N431" s="17"/>
       <c r="O431" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="15"/>
@@ -11737,7 +11302,7 @@
       <c r="N432" s="17"/>
       <c r="O432" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="15"/>
@@ -11754,7 +11319,7 @@
       <c r="N433" s="17"/>
       <c r="O433" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="15"/>
@@ -11771,7 +11336,7 @@
       <c r="N434" s="17"/>
       <c r="O434" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="15"/>
@@ -11788,7 +11353,7 @@
       <c r="N435" s="17"/>
       <c r="O435" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="15"/>
@@ -11805,7 +11370,7 @@
       <c r="N436" s="17"/>
       <c r="O436" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="15"/>
@@ -11822,7 +11387,7 @@
       <c r="N437" s="17"/>
       <c r="O437" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="15"/>
@@ -11839,7 +11404,7 @@
       <c r="N438" s="17"/>
       <c r="O438" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="15"/>
@@ -11856,7 +11421,7 @@
       <c r="N439" s="17"/>
       <c r="O439" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="15"/>
@@ -11873,7 +11438,7 @@
       <c r="N440" s="17"/>
       <c r="O440" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="15"/>
@@ -11890,7 +11455,7 @@
       <c r="N441" s="17"/>
       <c r="O441" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="15"/>
@@ -11907,7 +11472,7 @@
       <c r="N442" s="17"/>
       <c r="O442" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="15"/>
@@ -11924,7 +11489,7 @@
       <c r="N443" s="17"/>
       <c r="O443" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="15"/>
@@ -11941,7 +11506,7 @@
       <c r="N444" s="17"/>
       <c r="O444" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="15"/>
@@ -11958,7 +11523,7 @@
       <c r="N445" s="17"/>
       <c r="O445" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="15"/>
@@ -11975,7 +11540,7 @@
       <c r="N446" s="17"/>
       <c r="O446" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="15"/>
@@ -11992,7 +11557,7 @@
       <c r="N447" s="17"/>
       <c r="O447" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="15"/>
@@ -12009,7 +11574,7 @@
       <c r="N448" s="17"/>
       <c r="O448" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="15"/>
@@ -12026,7 +11591,7 @@
       <c r="N449" s="17"/>
       <c r="O449" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="15"/>
@@ -12043,7 +11608,7 @@
       <c r="N450" s="17"/>
       <c r="O450" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="15"/>
@@ -12060,7 +11625,7 @@
       <c r="N451" s="17"/>
       <c r="O451" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="15"/>
@@ -12077,7 +11642,7 @@
       <c r="N452" s="17"/>
       <c r="O452" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="15"/>
@@ -12094,7 +11659,7 @@
       <c r="N453" s="17"/>
       <c r="O453" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="15"/>
@@ -12111,7 +11676,7 @@
       <c r="N454" s="17"/>
       <c r="O454" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="15"/>
@@ -12128,7 +11693,7 @@
       <c r="N455" s="17"/>
       <c r="O455" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="15"/>
@@ -12145,7 +11710,7 @@
       <c r="N456" s="17"/>
       <c r="O456" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="15"/>
@@ -12162,7 +11727,7 @@
       <c r="N457" s="17"/>
       <c r="O457" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="15"/>
@@ -12179,7 +11744,7 @@
       <c r="N458" s="17"/>
       <c r="O458" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="15"/>
@@ -12196,7 +11761,7 @@
       <c r="N459" s="17"/>
       <c r="O459" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="15"/>
@@ -12213,7 +11778,7 @@
       <c r="N460" s="17"/>
       <c r="O460" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="15"/>
@@ -12230,7 +11795,7 @@
       <c r="N461" s="17"/>
       <c r="O461" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="15"/>
@@ -12247,7 +11812,7 @@
       <c r="N462" s="17"/>
       <c r="O462" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="15"/>
@@ -12264,7 +11829,7 @@
       <c r="N463" s="17"/>
       <c r="O463" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="15"/>
@@ -12281,7 +11846,7 @@
       <c r="N464" s="17"/>
       <c r="O464" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="15"/>
@@ -12298,7 +11863,7 @@
       <c r="N465" s="17"/>
       <c r="O465" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="15"/>
@@ -12315,7 +11880,7 @@
       <c r="N466" s="17"/>
       <c r="O466" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="15"/>
@@ -12332,7 +11897,7 @@
       <c r="N467" s="17"/>
       <c r="O467" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="15"/>
@@ -12349,7 +11914,7 @@
       <c r="N468" s="17"/>
       <c r="O468" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="15"/>
@@ -12366,7 +11931,7 @@
       <c r="N469" s="17"/>
       <c r="O469" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="15"/>
@@ -12383,7 +11948,7 @@
       <c r="N470" s="17"/>
       <c r="O470" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="15"/>
@@ -12400,7 +11965,7 @@
       <c r="N471" s="17"/>
       <c r="O471" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="15"/>
@@ -12417,7 +11982,7 @@
       <c r="N472" s="17"/>
       <c r="O472" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="15"/>
@@ -12434,7 +11999,7 @@
       <c r="N473" s="17"/>
       <c r="O473" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="15"/>
@@ -12451,7 +12016,7 @@
       <c r="N474" s="17"/>
       <c r="O474" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="15"/>
@@ -12468,7 +12033,7 @@
       <c r="N475" s="17"/>
       <c r="O475" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="15"/>
@@ -12485,7 +12050,7 @@
       <c r="N476" s="17"/>
       <c r="O476" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="15"/>
@@ -12502,7 +12067,7 @@
       <c r="N477" s="17"/>
       <c r="O477" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="15"/>
@@ -12519,7 +12084,7 @@
       <c r="N478" s="17"/>
       <c r="O478" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="15"/>
@@ -12536,7 +12101,7 @@
       <c r="N479" s="17"/>
       <c r="O479" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="15"/>
@@ -12553,7 +12118,7 @@
       <c r="N480" s="17"/>
       <c r="O480" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="15"/>
@@ -12570,7 +12135,7 @@
       <c r="N481" s="17"/>
       <c r="O481" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="15"/>
@@ -12587,7 +12152,7 @@
       <c r="N482" s="17"/>
       <c r="O482" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="15"/>
@@ -12604,7 +12169,7 @@
       <c r="N483" s="17"/>
       <c r="O483" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="15"/>
@@ -12621,7 +12186,7 @@
       <c r="N484" s="17"/>
       <c r="O484" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="15"/>
@@ -12638,7 +12203,7 @@
       <c r="N485" s="17"/>
       <c r="O485" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="15"/>
@@ -12655,7 +12220,7 @@
       <c r="N486" s="17"/>
       <c r="O486" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="15"/>
@@ -12672,7 +12237,7 @@
       <c r="N487" s="17"/>
       <c r="O487" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="15"/>
@@ -12689,7 +12254,7 @@
       <c r="N488" s="17"/>
       <c r="O488" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="15"/>
@@ -12706,7 +12271,7 @@
       <c r="N489" s="17"/>
       <c r="O489" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="15"/>
@@ -12723,7 +12288,7 @@
       <c r="N490" s="17"/>
       <c r="O490" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="15"/>
@@ -12740,7 +12305,7 @@
       <c r="N491" s="17"/>
       <c r="O491" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="15"/>
@@ -12757,7 +12322,7 @@
       <c r="N492" s="17"/>
       <c r="O492" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="15"/>
@@ -12774,7 +12339,7 @@
       <c r="N493" s="17"/>
       <c r="O493" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="15"/>
@@ -12791,7 +12356,7 @@
       <c r="N494" s="17"/>
       <c r="O494" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="15"/>
@@ -12808,7 +12373,7 @@
       <c r="N495" s="17"/>
       <c r="O495" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="15"/>
@@ -12825,7 +12390,7 @@
       <c r="N496" s="17"/>
       <c r="O496" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="15"/>
@@ -12842,7 +12407,7 @@
       <c r="N497" s="17"/>
       <c r="O497" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="15"/>
@@ -12859,7 +12424,7 @@
       <c r="N498" s="17"/>
       <c r="O498" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="15"/>
@@ -12876,7 +12441,7 @@
       <c r="N499" s="17"/>
       <c r="O499" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="15"/>
@@ -12893,7 +12458,7 @@
       <c r="N500" s="17"/>
       <c r="O500" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="15"/>
@@ -12910,7 +12475,7 @@
       <c r="N501" s="17"/>
       <c r="O501" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="15"/>
@@ -12927,7 +12492,7 @@
       <c r="N502" s="17"/>
       <c r="O502" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="15"/>
@@ -12944,7 +12509,7 @@
       <c r="N503" s="17"/>
       <c r="O503" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="15"/>
@@ -12961,7 +12526,7 @@
       <c r="N504" s="17"/>
       <c r="O504" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="15"/>
@@ -12978,7 +12543,7 @@
       <c r="N505" s="17"/>
       <c r="O505" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="15"/>
@@ -12995,7 +12560,7 @@
       <c r="N506" s="17"/>
       <c r="O506" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="15"/>
@@ -13012,7 +12577,7 @@
       <c r="N507" s="17"/>
       <c r="O507" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="15"/>
@@ -13029,7 +12594,7 @@
       <c r="N508" s="17"/>
       <c r="O508" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="15"/>
@@ -13046,7 +12611,7 @@
       <c r="N509" s="17"/>
       <c r="O509" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="15"/>
@@ -13063,7 +12628,7 @@
       <c r="N510" s="17"/>
       <c r="O510" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="15"/>
@@ -13080,7 +12645,7 @@
       <c r="N511" s="17"/>
       <c r="O511" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="15"/>
@@ -13097,7 +12662,7 @@
       <c r="N512" s="17"/>
       <c r="O512" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="513" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="15"/>
@@ -13114,7 +12679,7 @@
       <c r="N513" s="17"/>
       <c r="O513" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="514" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="15"/>
@@ -13131,7 +12696,7 @@
       <c r="N514" s="17"/>
       <c r="O514" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="515" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="15"/>
@@ -13148,7 +12713,7 @@
       <c r="N515" s="17"/>
       <c r="O515" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="516" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="15"/>
@@ -13165,7 +12730,7 @@
       <c r="N516" s="17"/>
       <c r="O516" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="517" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="15"/>
@@ -13182,7 +12747,7 @@
       <c r="N517" s="17"/>
       <c r="O517" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="518" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="15"/>
@@ -13199,7 +12764,7 @@
       <c r="N518" s="17"/>
       <c r="O518" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="519" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="15"/>
@@ -13216,7 +12781,7 @@
       <c r="N519" s="17"/>
       <c r="O519" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="520" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="15"/>
@@ -13233,7 +12798,7 @@
       <c r="N520" s="17"/>
       <c r="O520" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="521" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="15"/>
@@ -13250,7 +12815,7 @@
       <c r="N521" s="17"/>
       <c r="O521" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="522" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="15"/>
@@ -13267,7 +12832,7 @@
       <c r="N522" s="17"/>
       <c r="O522" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="523" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="15"/>
@@ -13284,7 +12849,7 @@
       <c r="N523" s="17"/>
       <c r="O523" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="524" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="15"/>
@@ -13301,7 +12866,7 @@
       <c r="N524" s="17"/>
       <c r="O524" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="525" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="15"/>
@@ -13318,7 +12883,7 @@
       <c r="N525" s="17"/>
       <c r="O525" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="526" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="15"/>
@@ -13335,7 +12900,7 @@
       <c r="N526" s="17"/>
       <c r="O526" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="527" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="15"/>
@@ -13352,7 +12917,7 @@
       <c r="N527" s="17"/>
       <c r="O527" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="528" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="15"/>
@@ -13369,7 +12934,7 @@
       <c r="N528" s="17"/>
       <c r="O528" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="529" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="15"/>
@@ -13386,7 +12951,7 @@
       <c r="N529" s="17"/>
       <c r="O529" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="530" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="15"/>
@@ -13403,7 +12968,7 @@
       <c r="N530" s="17"/>
       <c r="O530" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="531" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="15"/>
@@ -13420,7 +12985,7 @@
       <c r="N531" s="17"/>
       <c r="O531" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="532" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="15"/>
@@ -13437,7 +13002,7 @@
       <c r="N532" s="17"/>
       <c r="O532" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="533" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="15"/>
@@ -13454,7 +13019,7 @@
       <c r="N533" s="17"/>
       <c r="O533" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="534" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="15"/>
@@ -13471,7 +13036,7 @@
       <c r="N534" s="17"/>
       <c r="O534" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="535" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="15"/>
@@ -13488,7 +13053,7 @@
       <c r="N535" s="17"/>
       <c r="O535" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="536" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="15"/>
@@ -13505,7 +13070,7 @@
       <c r="N536" s="17"/>
       <c r="O536" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="537" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="15"/>
@@ -13522,7 +13087,7 @@
       <c r="N537" s="17"/>
       <c r="O537" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="538" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="15"/>
@@ -13539,7 +13104,7 @@
       <c r="N538" s="17"/>
       <c r="O538" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="539" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="15"/>
@@ -13556,7 +13121,7 @@
       <c r="N539" s="17"/>
       <c r="O539" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="540" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="15"/>
@@ -13573,7 +13138,7 @@
       <c r="N540" s="17"/>
       <c r="O540" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="541" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="15"/>
@@ -13590,7 +13155,7 @@
       <c r="N541" s="17"/>
       <c r="O541" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="542" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="15"/>
@@ -13607,7 +13172,7 @@
       <c r="N542" s="17"/>
       <c r="O542" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="543" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="15"/>
@@ -13624,7 +13189,7 @@
       <c r="N543" s="17"/>
       <c r="O543" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="544" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="15"/>
@@ -13641,7 +13206,7 @@
       <c r="N544" s="17"/>
       <c r="O544" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="545" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="15"/>
@@ -13658,7 +13223,7 @@
       <c r="N545" s="17"/>
       <c r="O545" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="546" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="15"/>
@@ -13675,7 +13240,7 @@
       <c r="N546" s="17"/>
       <c r="O546" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="547" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="15"/>
@@ -13692,7 +13257,7 @@
       <c r="N547" s="17"/>
       <c r="O547" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="548" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="15"/>
@@ -13709,7 +13274,7 @@
       <c r="N548" s="17"/>
       <c r="O548" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="549" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="15"/>
@@ -13726,7 +13291,7 @@
       <c r="N549" s="17"/>
       <c r="O549" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="550" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="15"/>
@@ -13743,7 +13308,7 @@
       <c r="N550" s="17"/>
       <c r="O550" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="551" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="15"/>
@@ -13760,7 +13325,7 @@
       <c r="N551" s="17"/>
       <c r="O551" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="552" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="15"/>
@@ -13777,7 +13342,7 @@
       <c r="N552" s="17"/>
       <c r="O552" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="553" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="15"/>
@@ -13794,7 +13359,7 @@
       <c r="N553" s="17"/>
       <c r="O553" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="554" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="15"/>
@@ -13811,7 +13376,7 @@
       <c r="N554" s="17"/>
       <c r="O554" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="555" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="15"/>
@@ -13828,7 +13393,7 @@
       <c r="N555" s="17"/>
       <c r="O555" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="556" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="15"/>
@@ -13845,7 +13410,7 @@
       <c r="N556" s="17"/>
       <c r="O556" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="557" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="15"/>
@@ -13862,7 +13427,7 @@
       <c r="N557" s="17"/>
       <c r="O557" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="558" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="15"/>
@@ -13879,7 +13444,7 @@
       <c r="N558" s="17"/>
       <c r="O558" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="559" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="15"/>
@@ -13896,7 +13461,7 @@
       <c r="N559" s="17"/>
       <c r="O559" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="560" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="15"/>
@@ -13913,7 +13478,7 @@
       <c r="N560" s="17"/>
       <c r="O560" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="561" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="15"/>
@@ -13930,7 +13495,7 @@
       <c r="N561" s="17"/>
       <c r="O561" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="562" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="15"/>
@@ -13947,7 +13512,7 @@
       <c r="N562" s="17"/>
       <c r="O562" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="563" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="15"/>
@@ -13964,7 +13529,7 @@
       <c r="N563" s="17"/>
       <c r="O563" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="564" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="15"/>
@@ -13981,7 +13546,7 @@
       <c r="N564" s="17"/>
       <c r="O564" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="565" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="15"/>
@@ -13998,7 +13563,7 @@
       <c r="N565" s="17"/>
       <c r="O565" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="566" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="15"/>
@@ -14015,7 +13580,7 @@
       <c r="N566" s="17"/>
       <c r="O566" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="567" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="15"/>
@@ -14032,7 +13597,7 @@
       <c r="N567" s="17"/>
       <c r="O567" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="568" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="15"/>
@@ -14049,7 +13614,7 @@
       <c r="N568" s="17"/>
       <c r="O568" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="569" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="15"/>
@@ -14066,7 +13631,7 @@
       <c r="N569" s="17"/>
       <c r="O569" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="570" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="15"/>
@@ -14083,7 +13648,7 @@
       <c r="N570" s="17"/>
       <c r="O570" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="571" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="15"/>
@@ -14100,7 +13665,7 @@
       <c r="N571" s="17"/>
       <c r="O571" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="572" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="15"/>
@@ -14117,7 +13682,7 @@
       <c r="N572" s="17"/>
       <c r="O572" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="573" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="15"/>
@@ -14134,7 +13699,7 @@
       <c r="N573" s="17"/>
       <c r="O573" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="574" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="15"/>
@@ -14151,7 +13716,7 @@
       <c r="N574" s="17"/>
       <c r="O574" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="575" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="15"/>
@@ -14168,7 +13733,7 @@
       <c r="N575" s="17"/>
       <c r="O575" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="576" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="15"/>
@@ -14185,7 +13750,7 @@
       <c r="N576" s="17"/>
       <c r="O576" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="577" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="15"/>
@@ -14202,7 +13767,7 @@
       <c r="N577" s="17"/>
       <c r="O577" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="578" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="15"/>
@@ -14219,7 +13784,7 @@
       <c r="N578" s="17"/>
       <c r="O578" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="579" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="15"/>
@@ -14236,7 +13801,7 @@
       <c r="N579" s="17"/>
       <c r="O579" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="580" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="15"/>
@@ -14253,7 +13818,7 @@
       <c r="N580" s="17"/>
       <c r="O580" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="581" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="15"/>
@@ -14270,7 +13835,7 @@
       <c r="N581" s="17"/>
       <c r="O581" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="582" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="15"/>
@@ -14287,7 +13852,7 @@
       <c r="N582" s="17"/>
       <c r="O582" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="583" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="15"/>
@@ -14304,7 +13869,7 @@
       <c r="N583" s="17"/>
       <c r="O583" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="584" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="15"/>
@@ -14321,7 +13886,7 @@
       <c r="N584" s="17"/>
       <c r="O584" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="585" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="15"/>
@@ -14338,7 +13903,7 @@
       <c r="N585" s="17"/>
       <c r="O585" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="586" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="15"/>
@@ -14355,7 +13920,7 @@
       <c r="N586" s="17"/>
       <c r="O586" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="587" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="15"/>
@@ -14372,7 +13937,7 @@
       <c r="N587" s="17"/>
       <c r="O587" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="588" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="15"/>
@@ -14389,7 +13954,7 @@
       <c r="N588" s="17"/>
       <c r="O588" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="589" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="15"/>
@@ -14406,7 +13971,7 @@
       <c r="N589" s="17"/>
       <c r="O589" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="590" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="15"/>
@@ -14423,7 +13988,7 @@
       <c r="N590" s="17"/>
       <c r="O590" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="591" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="15"/>
@@ -14440,7 +14005,7 @@
       <c r="N591" s="17"/>
       <c r="O591" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="592" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="15"/>
@@ -14457,7 +14022,7 @@
       <c r="N592" s="17"/>
       <c r="O592" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="593" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="15"/>
@@ -14474,7 +14039,7 @@
       <c r="N593" s="17"/>
       <c r="O593" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="594" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="15"/>
@@ -14491,7 +14056,7 @@
       <c r="N594" s="17"/>
       <c r="O594" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="595" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="15"/>
@@ -14508,7 +14073,7 @@
       <c r="N595" s="17"/>
       <c r="O595" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="596" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="15"/>
@@ -14525,7 +14090,7 @@
       <c r="N596" s="17"/>
       <c r="O596" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="597" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="15"/>
@@ -14542,7 +14107,7 @@
       <c r="N597" s="17"/>
       <c r="O597" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="598" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="15"/>
@@ -14559,7 +14124,7 @@
       <c r="N598" s="17"/>
       <c r="O598" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="599" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="15"/>
@@ -14576,7 +14141,7 @@
       <c r="N599" s="17"/>
       <c r="O599" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="600" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="15"/>
@@ -14593,7 +14158,7 @@
       <c r="N600" s="17"/>
       <c r="O600" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="601" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="15"/>
@@ -14610,7 +14175,7 @@
       <c r="N601" s="17"/>
       <c r="O601" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="602" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="15"/>
@@ -14627,7 +14192,7 @@
       <c r="N602" s="17"/>
       <c r="O602" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="603" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="15"/>
@@ -14644,7 +14209,7 @@
       <c r="N603" s="17"/>
       <c r="O603" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="604" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="15"/>
@@ -14661,7 +14226,7 @@
       <c r="N604" s="17"/>
       <c r="O604" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="605" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="15"/>
@@ -14678,7 +14243,7 @@
       <c r="N605" s="17"/>
       <c r="O605" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="606" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="15"/>
@@ -14695,7 +14260,7 @@
       <c r="N606" s="17"/>
       <c r="O606" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="607" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="15"/>
@@ -14712,7 +14277,7 @@
       <c r="N607" s="17"/>
       <c r="O607" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="608" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="15"/>
@@ -14729,7 +14294,7 @@
       <c r="N608" s="17"/>
       <c r="O608" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="609" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="15"/>
@@ -14746,7 +14311,7 @@
       <c r="N609" s="17"/>
       <c r="O609" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="610" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="15"/>
@@ -14763,7 +14328,7 @@
       <c r="N610" s="17"/>
       <c r="O610" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="611" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="15"/>
@@ -14780,7 +14345,7 @@
       <c r="N611" s="17"/>
       <c r="O611" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="612" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="15"/>
@@ -14797,7 +14362,7 @@
       <c r="N612" s="17"/>
       <c r="O612" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="613" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="15"/>
@@ -14814,7 +14379,7 @@
       <c r="N613" s="17"/>
       <c r="O613" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="614" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="15"/>
@@ -14831,7 +14396,7 @@
       <c r="N614" s="17"/>
       <c r="O614" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="615" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="15"/>
@@ -14848,7 +14413,7 @@
       <c r="N615" s="17"/>
       <c r="O615" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="616" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="15"/>
@@ -14865,7 +14430,7 @@
       <c r="N616" s="17"/>
       <c r="O616" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="617" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="15"/>
@@ -14882,7 +14447,7 @@
       <c r="N617" s="17"/>
       <c r="O617" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="618" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="15"/>
@@ -14899,7 +14464,7 @@
       <c r="N618" s="17"/>
       <c r="O618" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="619" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="15"/>
@@ -14916,7 +14481,7 @@
       <c r="N619" s="17"/>
       <c r="O619" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="620" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="15"/>
@@ -14933,7 +14498,7 @@
       <c r="N620" s="17"/>
       <c r="O620" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="621" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="15"/>
@@ -14950,7 +14515,7 @@
       <c r="N621" s="17"/>
       <c r="O621" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="622" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="15"/>
@@ -14967,7 +14532,7 @@
       <c r="N622" s="17"/>
       <c r="O622" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="623" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="15"/>
@@ -14984,7 +14549,7 @@
       <c r="N623" s="17"/>
       <c r="O623" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="624" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="15"/>
@@ -15001,7 +14566,7 @@
       <c r="N624" s="17"/>
       <c r="O624" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="625" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="15"/>
@@ -15018,7 +14583,7 @@
       <c r="N625" s="17"/>
       <c r="O625" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="626" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="15"/>
@@ -15035,7 +14600,7 @@
       <c r="N626" s="17"/>
       <c r="O626" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="627" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="15"/>
@@ -15052,7 +14617,7 @@
       <c r="N627" s="17"/>
       <c r="O627" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="628" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="15"/>
@@ -15069,7 +14634,7 @@
       <c r="N628" s="17"/>
       <c r="O628" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="629" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="15"/>
@@ -15086,7 +14651,7 @@
       <c r="N629" s="17"/>
       <c r="O629" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="630" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="15"/>
@@ -15103,7 +14668,7 @@
       <c r="N630" s="17"/>
       <c r="O630" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="631" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="15"/>
@@ -15120,7 +14685,7 @@
       <c r="N631" s="17"/>
       <c r="O631" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="632" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="15"/>
@@ -15137,7 +14702,7 @@
       <c r="N632" s="17"/>
       <c r="O632" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="633" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="15"/>
@@ -15154,7 +14719,7 @@
       <c r="N633" s="17"/>
       <c r="O633" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="634" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="15"/>
@@ -15171,7 +14736,7 @@
       <c r="N634" s="17"/>
       <c r="O634" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="635" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="15"/>
@@ -15188,7 +14753,7 @@
       <c r="N635" s="17"/>
       <c r="O635" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="636" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="15"/>
@@ -15205,7 +14770,7 @@
       <c r="N636" s="17"/>
       <c r="O636" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="637" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="15"/>
@@ -15222,7 +14787,7 @@
       <c r="N637" s="17"/>
       <c r="O637" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="638" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="15"/>
@@ -15239,7 +14804,7 @@
       <c r="N638" s="17"/>
       <c r="O638" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="639" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="15"/>
@@ -15256,7 +14821,7 @@
       <c r="N639" s="17"/>
       <c r="O639" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="640" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="15"/>
@@ -15273,7 +14838,7 @@
       <c r="N640" s="17"/>
       <c r="O640" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="641" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="15"/>
@@ -15290,7 +14855,7 @@
       <c r="N641" s="17"/>
       <c r="O641" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="642" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="15"/>
@@ -15307,7 +14872,7 @@
       <c r="N642" s="17"/>
       <c r="O642" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="643" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="15"/>
@@ -15324,7 +14889,7 @@
       <c r="N643" s="17"/>
       <c r="O643" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="644" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="15"/>
@@ -15341,7 +14906,7 @@
       <c r="N644" s="17"/>
       <c r="O644" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="645" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="15"/>
@@ -15358,7 +14923,7 @@
       <c r="N645" s="17"/>
       <c r="O645" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="646" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="15"/>
@@ -15375,7 +14940,7 @@
       <c r="N646" s="17"/>
       <c r="O646" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="647" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="15"/>
@@ -15392,7 +14957,7 @@
       <c r="N647" s="17"/>
       <c r="O647" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="648" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="15"/>
@@ -15409,57 +14974,57 @@
       <c r="N648" s="17"/>
       <c r="O648" s="3"/>
     </row>
-    <row customHeight="1" ht="22" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="657" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="658" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="659" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="660" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="661" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="662" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="663" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="664" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="665" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="666" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="667" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="668" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="669" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="670" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="671" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="672" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="673" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="674" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="675" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="676" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="677" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="678" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="679" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="680" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="681" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="682" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="683" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="684" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="685" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="686" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="687" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="688" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="689" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="690" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="691" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="692" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="693" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="694" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="695" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="696" x14ac:dyDescent="0.2"/>
-    <row customHeight="1" ht="22" r="697" x14ac:dyDescent="0.2"/>
+    <row r="649" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection deleteColumns="0" deleteRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:N1"/>
@@ -15467,49 +15032,49 @@
     <mergeCell ref="L2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N4 N29:N1048576">
-    <cfRule dxfId="7" operator="beginsWith" priority="5" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="7" priority="5" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="beginsWith" priority="6" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="6" priority="6" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="5" operator="beginsWith" priority="7" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="5" priority="7" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:XFD697 P5:XFD28">
-    <cfRule dxfId="4" priority="8" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N28">
-    <cfRule dxfId="3" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:O6 A8:O12 B7:O7 A14:O20 B13:O13 A22:O28 B21:O21">
-    <cfRule dxfId="0" priority="4" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2" disablePrompts="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C800" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C800" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="NGP" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="NGP" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>